--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_13_25.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_13_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>493841.7343087355</v>
+        <v>493048.0004161369</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2852963.487021478</v>
+        <v>2852963.487021479</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736557</v>
+        <v>504792.029273655</v>
       </c>
     </row>
     <row r="9">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>8.816525072005941</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.816525072005941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,10 +1209,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10.00967878293136</v>
+        <v>8.816525072005941</v>
       </c>
       <c r="C9" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>8.816525072005941</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
     </row>
     <row r="10">
@@ -1300,64 +1300,64 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>8.816525072005941</v>
+      </c>
+      <c r="W10" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="G10" t="n">
+      <c r="X10" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>8.816525072005941</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
+      <c r="Y10" t="n">
         <v>10.00967878293136</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>293.6396894554686</v>
       </c>
       <c r="C11" t="n">
-        <v>281.6510064131504</v>
+        <v>281.6510064131503</v>
       </c>
       <c r="D11" t="n">
-        <v>49.21537940974886</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>294.3744480275839</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>313.546264115561</v>
       </c>
       <c r="G11" t="n">
-        <v>314.9514440975199</v>
+        <v>314.9514440975198</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>227.6213666270507</v>
       </c>
       <c r="I11" t="n">
-        <v>54.26650277500692</v>
+        <v>54.26650277500688</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>76.85946757494995</v>
+        <v>76.8594675749499</v>
       </c>
       <c r="T11" t="n">
-        <v>123.3402372889862</v>
+        <v>82.1995716335922</v>
       </c>
       <c r="U11" t="n">
-        <v>155.8308212225385</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>237.1460666956477</v>
       </c>
       <c r="W11" t="n">
-        <v>262.4461661736046</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>281.7464244063512</v>
       </c>
       <c r="Y11" t="n">
         <v>293.14302220255</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>85.25640033016569</v>
+        <v>85.25640033016565</v>
       </c>
       <c r="C13" t="n">
-        <v>71.45639517556617</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>55.07775957314456</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>54.02550942892401</v>
+        <v>54.02550942892397</v>
       </c>
       <c r="F13" t="n">
-        <v>54.49243375711032</v>
+        <v>54.49243375711028</v>
       </c>
       <c r="G13" t="n">
-        <v>70.53025441965691</v>
+        <v>70.53025441965687</v>
       </c>
       <c r="H13" t="n">
-        <v>59.20940725107935</v>
+        <v>59.20940725107931</v>
       </c>
       <c r="I13" t="n">
-        <v>39.17390973584602</v>
+        <v>39.17390973584598</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>40.91207015138666</v>
+        <v>40.91207015138662</v>
       </c>
       <c r="S13" t="n">
-        <v>110.9810420600519</v>
+        <v>110.9810420600518</v>
       </c>
       <c r="T13" t="n">
-        <v>133.3716165520478</v>
+        <v>110.8388842264427</v>
       </c>
       <c r="U13" t="n">
-        <v>187.8420016088498</v>
+        <v>187.8420016088497</v>
       </c>
       <c r="V13" t="n">
-        <v>161.6645367297913</v>
+        <v>161.6645367297912</v>
       </c>
       <c r="W13" t="n">
-        <v>37.76453572608735</v>
+        <v>186.8314228004045</v>
       </c>
       <c r="X13" t="n">
-        <v>132.4765247962077</v>
+        <v>132.4765247962076</v>
       </c>
       <c r="Y13" t="n">
         <v>123.3513925522753</v>
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>293.6396894554685</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>103.9797777679652</v>
+        <v>281.6510064131502</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>272.6323104576782</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>294.3744480275838</v>
       </c>
       <c r="F14" t="n">
         <v>313.5462641155609</v>
@@ -1625,7 +1625,7 @@
         <v>227.6213666270506</v>
       </c>
       <c r="I14" t="n">
-        <v>54.26650277500682</v>
+        <v>54.26650277500681</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>76.85946757494985</v>
+        <v>44.09815729611425</v>
       </c>
       <c r="T14" t="n">
         <v>123.3402372889861</v>
       </c>
       <c r="U14" t="n">
-        <v>155.8308212225384</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>237.1460666956476</v>
       </c>
       <c r="W14" t="n">
-        <v>262.4461661736045</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>85.25640033016559</v>
+        <v>85.25640033016558</v>
       </c>
       <c r="C16" t="n">
-        <v>71.45639517556607</v>
+        <v>71.45639517556606</v>
       </c>
       <c r="D16" t="n">
-        <v>55.07775957314446</v>
+        <v>55.07775957314445</v>
       </c>
       <c r="E16" t="n">
-        <v>54.02550942892391</v>
+        <v>54.0255094289239</v>
       </c>
       <c r="F16" t="n">
-        <v>54.49243375711022</v>
+        <v>54.49243375711021</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>70.5302544196568</v>
       </c>
       <c r="H16" t="n">
-        <v>59.20940725107925</v>
+        <v>59.20940725107923</v>
       </c>
       <c r="I16" t="n">
-        <v>39.17390973584592</v>
+        <v>39.17390973584591</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>40.91207015138656</v>
+        <v>40.91207015138654</v>
       </c>
       <c r="S16" t="n">
         <v>110.9810420600518</v>
       </c>
       <c r="T16" t="n">
-        <v>54.83498389738975</v>
+        <v>133.3716165520476</v>
       </c>
       <c r="U16" t="n">
         <v>187.8420016088497</v>
@@ -1825,10 +1825,10 @@
         <v>161.6645367297912</v>
       </c>
       <c r="W16" t="n">
-        <v>186.8314228004044</v>
+        <v>37.7645357260896</v>
       </c>
       <c r="X16" t="n">
-        <v>132.4765247962076</v>
+        <v>132.4765247962075</v>
       </c>
       <c r="Y16" t="n">
         <v>123.3513925522752</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>236.6307831561008</v>
+        <v>236.6307831561009</v>
       </c>
       <c r="C17" t="n">
         <v>224.6421001137826</v>
@@ -1850,13 +1850,13 @@
         <v>215.6234041583106</v>
       </c>
       <c r="E17" t="n">
-        <v>237.3655417282161</v>
+        <v>237.3655417282162</v>
       </c>
       <c r="F17" t="n">
-        <v>256.5373578161933</v>
+        <v>82.50413724554795</v>
       </c>
       <c r="G17" t="n">
-        <v>257.9425377981521</v>
+        <v>257.9425377981522</v>
       </c>
       <c r="H17" t="n">
         <v>170.612460327683</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>19.85056127558218</v>
+        <v>19.85056127558224</v>
       </c>
       <c r="T17" t="n">
-        <v>66.33133098961845</v>
+        <v>66.33133098961851</v>
       </c>
       <c r="U17" t="n">
-        <v>98.82191492317071</v>
+        <v>98.82191492317077</v>
       </c>
       <c r="V17" t="n">
         <v>180.13716039628</v>
       </c>
       <c r="W17" t="n">
-        <v>31.4040393035915</v>
+        <v>205.4372598742369</v>
       </c>
       <c r="X17" t="n">
         <v>224.7375181069835</v>
       </c>
       <c r="Y17" t="n">
-        <v>236.1341159031822</v>
+        <v>236.1341159031823</v>
       </c>
     </row>
     <row r="18">
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>28.24749403079792</v>
+        <v>28.24749403079798</v>
       </c>
       <c r="C19" t="n">
-        <v>14.44748887619841</v>
+        <v>14.44748887619846</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>25.17344743789937</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>13.52134812028915</v>
+        <v>13.5213481202892</v>
       </c>
       <c r="H19" t="n">
-        <v>2.200500951711584</v>
+        <v>2.200500951711641</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>53.97213576068411</v>
+        <v>79.14558319858278</v>
       </c>
       <c r="T19" t="n">
-        <v>76.36271025268</v>
+        <v>76.36271025268006</v>
       </c>
       <c r="U19" t="n">
-        <v>130.833095309482</v>
+        <v>130.8330953094821</v>
       </c>
       <c r="V19" t="n">
-        <v>104.6556304304235</v>
+        <v>104.6556304304236</v>
       </c>
       <c r="W19" t="n">
         <v>129.8225165010368</v>
       </c>
       <c r="X19" t="n">
-        <v>75.46761849683989</v>
+        <v>75.46761849683995</v>
       </c>
       <c r="Y19" t="n">
-        <v>66.34248625290758</v>
+        <v>66.34248625290763</v>
       </c>
     </row>
     <row r="20">
@@ -2078,22 +2078,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>236.6307831561008</v>
+        <v>236.6307831561009</v>
       </c>
       <c r="C20" t="n">
-        <v>50.60887954313618</v>
+        <v>224.6421001137826</v>
       </c>
       <c r="D20" t="n">
         <v>215.6234041583106</v>
       </c>
       <c r="E20" t="n">
-        <v>237.3655417282161</v>
+        <v>237.3655417282162</v>
       </c>
       <c r="F20" t="n">
         <v>256.5373578161933</v>
       </c>
       <c r="G20" t="n">
-        <v>257.9425377981521</v>
+        <v>257.9425377981522</v>
       </c>
       <c r="H20" t="n">
         <v>170.612460327683</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>19.85056127558218</v>
+        <v>19.85056127558224</v>
       </c>
       <c r="T20" t="n">
-        <v>66.33133098961845</v>
+        <v>66.33133098961849</v>
       </c>
       <c r="U20" t="n">
-        <v>98.82191492317071</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>180.13716039628</v>
       </c>
       <c r="W20" t="n">
-        <v>205.4372598742369</v>
+        <v>130.2259542267635</v>
       </c>
       <c r="X20" t="n">
         <v>224.7375181069835</v>
       </c>
       <c r="Y20" t="n">
-        <v>236.1341159031822</v>
+        <v>236.1341159031823</v>
       </c>
     </row>
     <row r="21">
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>28.24749403079792</v>
+        <v>28.24749403079798</v>
       </c>
       <c r="C22" t="n">
-        <v>14.44748887619841</v>
+        <v>39.6209363140971</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>13.52134812028915</v>
+        <v>13.5213481202892</v>
       </c>
       <c r="H22" t="n">
-        <v>2.200500951711584</v>
+        <v>2.200500951711641</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>53.97213576068411</v>
+        <v>53.97213576068417</v>
       </c>
       <c r="T22" t="n">
-        <v>76.36271025268</v>
+        <v>76.36271025268006</v>
       </c>
       <c r="U22" t="n">
-        <v>130.833095309482</v>
+        <v>130.8330953094821</v>
       </c>
       <c r="V22" t="n">
-        <v>104.6556304304235</v>
+        <v>104.6556304304236</v>
       </c>
       <c r="W22" t="n">
         <v>129.8225165010368</v>
       </c>
       <c r="X22" t="n">
-        <v>75.46761849683989</v>
+        <v>75.46761849683995</v>
       </c>
       <c r="Y22" t="n">
-        <v>91.51593369080695</v>
+        <v>66.34248625290763</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>236.6307831561008</v>
+        <v>236.6307831561009</v>
       </c>
       <c r="C23" t="n">
         <v>224.6421001137826</v>
@@ -2324,13 +2324,13 @@
         <v>215.6234041583106</v>
       </c>
       <c r="E23" t="n">
-        <v>237.3655417282161</v>
+        <v>237.3655417282162</v>
       </c>
       <c r="F23" t="n">
         <v>256.5373578161933</v>
       </c>
       <c r="G23" t="n">
-        <v>257.9425377981521</v>
+        <v>257.9425377981522</v>
       </c>
       <c r="H23" t="n">
         <v>170.612460327683</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>19.85056127558218</v>
+        <v>19.85056127558224</v>
       </c>
       <c r="T23" t="n">
-        <v>66.33133098961845</v>
+        <v>66.33133098961851</v>
       </c>
       <c r="U23" t="n">
-        <v>98.82191492317071</v>
+        <v>98.82191492317077</v>
       </c>
       <c r="V23" t="n">
         <v>180.13716039628</v>
@@ -2384,7 +2384,7 @@
         <v>224.7375181069835</v>
       </c>
       <c r="Y23" t="n">
-        <v>236.1341159031822</v>
+        <v>236.1341159031823</v>
       </c>
     </row>
     <row r="24">
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>28.24749403079792</v>
+        <v>28.24749403079798</v>
       </c>
       <c r="C25" t="n">
-        <v>14.44748887619841</v>
+        <v>14.44748887619846</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2485,13 +2485,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>25.1734474378995</v>
+        <v>25.17344743789876</v>
       </c>
       <c r="G25" t="n">
-        <v>13.52134812028915</v>
+        <v>13.5213481202892</v>
       </c>
       <c r="H25" t="n">
-        <v>2.200500951711584</v>
+        <v>2.200500951711641</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>53.97213576068411</v>
+        <v>53.97213576068417</v>
       </c>
       <c r="T25" t="n">
-        <v>76.36271025268</v>
+        <v>76.36271025268006</v>
       </c>
       <c r="U25" t="n">
-        <v>130.833095309482</v>
+        <v>130.8330953094821</v>
       </c>
       <c r="V25" t="n">
-        <v>104.6556304304235</v>
+        <v>104.6556304304236</v>
       </c>
       <c r="W25" t="n">
         <v>129.8225165010368</v>
       </c>
       <c r="X25" t="n">
-        <v>75.46761849683989</v>
+        <v>75.46761849683995</v>
       </c>
       <c r="Y25" t="n">
-        <v>66.34248625290758</v>
+        <v>66.34248625290763</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>287.387093608252</v>
+        <v>287.3870936082522</v>
       </c>
       <c r="C26" t="n">
         <v>275.3984105659339</v>
@@ -2573,7 +2573,7 @@
         <v>221.3687707798343</v>
       </c>
       <c r="I26" t="n">
-        <v>48.01390692779046</v>
+        <v>48.01390692779047</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.60687172773349</v>
+        <v>70.60687172773351</v>
       </c>
       <c r="T26" t="n">
         <v>117.0876414417698</v>
       </c>
       <c r="U26" t="n">
-        <v>149.578225375322</v>
+        <v>149.5782253753221</v>
       </c>
       <c r="V26" t="n">
         <v>230.8934708484313</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.00380448294925</v>
+        <v>79.00380448294926</v>
       </c>
       <c r="C28" t="n">
-        <v>65.20379932834973</v>
+        <v>65.20379932834975</v>
       </c>
       <c r="D28" t="n">
-        <v>48.82516372592812</v>
+        <v>48.82516372592814</v>
       </c>
       <c r="E28" t="n">
-        <v>47.77291358170757</v>
+        <v>47.77291358170758</v>
       </c>
       <c r="F28" t="n">
-        <v>48.23983790989388</v>
+        <v>48.23983790989389</v>
       </c>
       <c r="G28" t="n">
-        <v>64.27765857244049</v>
+        <v>64.2776585724405</v>
       </c>
       <c r="H28" t="n">
-        <v>52.95681140386291</v>
+        <v>52.95681140386292</v>
       </c>
       <c r="I28" t="n">
-        <v>32.92131388862958</v>
+        <v>32.92131388862959</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.65947430417021</v>
+        <v>34.65947430417022</v>
       </c>
       <c r="S28" t="n">
-        <v>104.7284462128354</v>
+        <v>104.7284462128355</v>
       </c>
       <c r="T28" t="n">
-        <v>127.1190207048313</v>
+        <v>127.1190207048314</v>
       </c>
       <c r="U28" t="n">
-        <v>181.5894057616333</v>
+        <v>181.5894057616334</v>
       </c>
       <c r="V28" t="n">
-        <v>155.4119408825748</v>
+        <v>155.4119408825749</v>
       </c>
       <c r="W28" t="n">
         <v>180.5788269531881</v>
@@ -2810,7 +2810,7 @@
         <v>221.3687707798343</v>
       </c>
       <c r="I29" t="n">
-        <v>48.0139069277905</v>
+        <v>48.01390692779052</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.60687172773352</v>
+        <v>70.60687172773353</v>
       </c>
       <c r="T29" t="n">
         <v>117.0876414417698</v>
@@ -2849,7 +2849,7 @@
         <v>149.5782253753221</v>
       </c>
       <c r="V29" t="n">
-        <v>230.8934708484313</v>
+        <v>230.893470848432</v>
       </c>
       <c r="W29" t="n">
         <v>256.1935703263882</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.00380448294926</v>
+        <v>79.00380448294928</v>
       </c>
       <c r="C31" t="n">
-        <v>65.20379932834975</v>
+        <v>65.20379932834976</v>
       </c>
       <c r="D31" t="n">
-        <v>48.82516372592814</v>
+        <v>48.82516372592815</v>
       </c>
       <c r="E31" t="n">
-        <v>47.77291358170758</v>
+        <v>47.7729135817076</v>
       </c>
       <c r="F31" t="n">
-        <v>48.23983790989389</v>
+        <v>48.23983790989391</v>
       </c>
       <c r="G31" t="n">
-        <v>64.2776585724405</v>
+        <v>64.27765857244052</v>
       </c>
       <c r="H31" t="n">
-        <v>52.95681140386292</v>
+        <v>52.95681140386294</v>
       </c>
       <c r="I31" t="n">
-        <v>32.9213138886296</v>
+        <v>32.92131388862961</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.65947430417023</v>
+        <v>34.65947430417025</v>
       </c>
       <c r="S31" t="n">
         <v>104.7284462128355</v>
@@ -3035,7 +3035,7 @@
         <v>263.7900105157419</v>
       </c>
       <c r="E32" t="n">
-        <v>285.5321480856474</v>
+        <v>285.5321480856475</v>
       </c>
       <c r="F32" t="n">
         <v>304.7039641736246</v>
@@ -3047,7 +3047,7 @@
         <v>218.7790666851143</v>
       </c>
       <c r="I32" t="n">
-        <v>45.42420283307045</v>
+        <v>45.4242028330705</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>68.01716763301347</v>
+        <v>68.01716763301351</v>
       </c>
       <c r="T32" t="n">
-        <v>114.4979373470497</v>
+        <v>114.4979373470498</v>
       </c>
       <c r="U32" t="n">
         <v>146.988521280602</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>76.41410038822922</v>
+        <v>76.41410038822926</v>
       </c>
       <c r="C34" t="n">
-        <v>62.6140952336297</v>
+        <v>62.61409523362974</v>
       </c>
       <c r="D34" t="n">
-        <v>46.23545963120809</v>
+        <v>46.23545963120813</v>
       </c>
       <c r="E34" t="n">
-        <v>45.18320948698754</v>
+        <v>45.18320948698758</v>
       </c>
       <c r="F34" t="n">
-        <v>45.65013381517385</v>
+        <v>45.65013381517389</v>
       </c>
       <c r="G34" t="n">
-        <v>61.68795447772044</v>
+        <v>61.68795447772048</v>
       </c>
       <c r="H34" t="n">
-        <v>50.36710730914287</v>
+        <v>50.36710730914292</v>
       </c>
       <c r="I34" t="n">
-        <v>30.33160979390955</v>
+        <v>30.33160979390959</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>32.06977020945018</v>
+        <v>32.06977020945023</v>
       </c>
       <c r="S34" t="n">
         <v>102.1387421181154</v>
@@ -3272,13 +3272,13 @@
         <v>215.6234041583106</v>
       </c>
       <c r="E35" t="n">
-        <v>237.3655417282162</v>
+        <v>237.3655417282161</v>
       </c>
       <c r="F35" t="n">
         <v>256.5373578161933</v>
       </c>
       <c r="G35" t="n">
-        <v>257.9425377981522</v>
+        <v>257.9425377981521</v>
       </c>
       <c r="H35" t="n">
         <v>170.612460327683</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>19.85056127558224</v>
+        <v>19.85056127558221</v>
       </c>
       <c r="T35" t="n">
-        <v>66.33133098961849</v>
+        <v>66.33133098961846</v>
       </c>
       <c r="U35" t="n">
-        <v>98.82191492317077</v>
+        <v>98.82191492317074</v>
       </c>
       <c r="V35" t="n">
         <v>180.13716039628</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>28.24749403079798</v>
+        <v>28.24749403079795</v>
       </c>
       <c r="C37" t="n">
-        <v>14.44748887619846</v>
+        <v>14.44748887619843</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,16 +3436,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>13.5213481202892</v>
+        <v>13.52134812028918</v>
       </c>
       <c r="H37" t="n">
-        <v>2.200500951711641</v>
+        <v>2.200500951711612</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>25.17344743789903</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>53.97213576068417</v>
+        <v>53.97213576068414</v>
       </c>
       <c r="T37" t="n">
-        <v>76.36271025268006</v>
+        <v>76.36271025268003</v>
       </c>
       <c r="U37" t="n">
         <v>130.8330953094821</v>
       </c>
       <c r="V37" t="n">
-        <v>129.8290778683224</v>
+        <v>104.6556304304235</v>
       </c>
       <c r="W37" t="n">
         <v>129.8225165010368</v>
       </c>
       <c r="X37" t="n">
-        <v>75.46761849683995</v>
+        <v>75.46761849683992</v>
       </c>
       <c r="Y37" t="n">
-        <v>66.34248625290763</v>
+        <v>66.34248625290761</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3503,7 @@
         <v>236.6307831561009</v>
       </c>
       <c r="C38" t="n">
-        <v>224.6421001137826</v>
+        <v>224.6421001137827</v>
       </c>
       <c r="D38" t="n">
         <v>215.6234041583106</v>
@@ -3518,7 +3518,7 @@
         <v>257.9425377981522</v>
       </c>
       <c r="H38" t="n">
-        <v>170.612460327683</v>
+        <v>170.6124603276831</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>19.85056127558224</v>
+        <v>19.85056127558227</v>
       </c>
       <c r="T38" t="n">
-        <v>66.33133098961849</v>
+        <v>66.33133098961852</v>
       </c>
       <c r="U38" t="n">
-        <v>98.82191492317077</v>
+        <v>98.82191492317079</v>
       </c>
       <c r="V38" t="n">
-        <v>180.13716039628</v>
+        <v>180.1371603962801</v>
       </c>
       <c r="W38" t="n">
-        <v>205.4372598742369</v>
+        <v>205.437259874237</v>
       </c>
       <c r="X38" t="n">
-        <v>224.7375181069835</v>
+        <v>224.7375181069836</v>
       </c>
       <c r="Y38" t="n">
         <v>236.1341159031823</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>28.24749403079798</v>
+        <v>28.24749403079801</v>
       </c>
       <c r="C40" t="n">
-        <v>14.44748887619846</v>
+        <v>14.44748887619849</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,16 +3673,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>13.5213481202892</v>
+        <v>13.52134812028923</v>
       </c>
       <c r="H40" t="n">
-        <v>2.200500951711641</v>
+        <v>2.200500951711669</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>25.17344743789846</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3709,10 +3709,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>79.1455831985829</v>
+        <v>53.9721357606842</v>
       </c>
       <c r="T40" t="n">
-        <v>76.36271025268006</v>
+        <v>76.36271025268009</v>
       </c>
       <c r="U40" t="n">
         <v>130.8330953094821</v>
@@ -3721,13 +3721,13 @@
         <v>104.6556304304236</v>
       </c>
       <c r="W40" t="n">
-        <v>129.8225165010368</v>
+        <v>129.8225165010369</v>
       </c>
       <c r="X40" t="n">
-        <v>75.46761849683995</v>
+        <v>75.46761849683998</v>
       </c>
       <c r="Y40" t="n">
-        <v>66.34248625290763</v>
+        <v>66.34248625290766</v>
       </c>
     </row>
     <row r="41">
@@ -3752,7 +3752,7 @@
         <v>256.5373578161933</v>
       </c>
       <c r="G41" t="n">
-        <v>257.9425377981521</v>
+        <v>257.9425377981522</v>
       </c>
       <c r="H41" t="n">
         <v>170.612460327683</v>
@@ -3791,7 +3791,7 @@
         <v>19.85056127558221</v>
       </c>
       <c r="T41" t="n">
-        <v>66.33133098961846</v>
+        <v>66.33133098961848</v>
       </c>
       <c r="U41" t="n">
         <v>98.82191492317074</v>
@@ -3974,19 +3974,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>236.630783156101</v>
+        <v>236.6307831561009</v>
       </c>
       <c r="C44" t="n">
         <v>224.6421001137827</v>
       </c>
       <c r="D44" t="n">
-        <v>215.6234041583107</v>
+        <v>215.6234041583106</v>
       </c>
       <c r="E44" t="n">
         <v>237.3655417282162</v>
       </c>
       <c r="F44" t="n">
-        <v>256.5373578161934</v>
+        <v>256.5373578161933</v>
       </c>
       <c r="G44" t="n">
         <v>257.9425377981522</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>19.85056127558229</v>
+        <v>19.85056127558227</v>
       </c>
       <c r="T44" t="n">
-        <v>66.33133098961855</v>
+        <v>66.33133098961852</v>
       </c>
       <c r="U44" t="n">
-        <v>98.82191492317082</v>
+        <v>98.82191492317079</v>
       </c>
       <c r="V44" t="n">
         <v>180.1371603962801</v>
@@ -4043,7 +4043,7 @@
         <v>224.7375181069836</v>
       </c>
       <c r="Y44" t="n">
-        <v>236.1341159031824</v>
+        <v>236.1341159031823</v>
       </c>
     </row>
     <row r="45">
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.24749403079804</v>
+        <v>28.24749403079801</v>
       </c>
       <c r="C46" t="n">
-        <v>14.44748887619852</v>
+        <v>14.44748887619849</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,10 +4147,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>13.52134812028926</v>
+        <v>13.52134812028923</v>
       </c>
       <c r="H46" t="n">
-        <v>2.200500951711697</v>
+        <v>2.200500951711669</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>25.17344743789849</v>
       </c>
       <c r="S46" t="n">
-        <v>53.97213576068422</v>
+        <v>53.9721357606842</v>
       </c>
       <c r="T46" t="n">
-        <v>76.36271025268012</v>
+        <v>76.36271025268009</v>
       </c>
       <c r="U46" t="n">
-        <v>156.0065427473804</v>
+        <v>130.8330953094821</v>
       </c>
       <c r="V46" t="n">
         <v>104.6556304304236</v>
@@ -4198,10 +4198,10 @@
         <v>129.8225165010369</v>
       </c>
       <c r="X46" t="n">
-        <v>75.46761849684</v>
+        <v>75.46761849683998</v>
       </c>
       <c r="Y46" t="n">
-        <v>66.34248625290769</v>
+        <v>66.34248625290766</v>
       </c>
     </row>
   </sheetData>
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21.02234760148574</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="C8" t="n">
-        <v>21.02234760148574</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="D8" t="n">
-        <v>21.02234760148574</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="E8" t="n">
-        <v>21.02234760148574</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="F8" t="n">
-        <v>10.91156095206012</v>
+        <v>19.81714183287421</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8007743026345088</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8007743026345088</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="I8" t="n">
         <v>0.8007743026345088</v>
@@ -4805,49 +4805,49 @@
         <v>10.71035629773655</v>
       </c>
       <c r="K8" t="n">
-        <v>10.71035629773655</v>
+        <v>20.6199382928386</v>
       </c>
       <c r="L8" t="n">
-        <v>10.71035629773655</v>
+        <v>30.52952028794065</v>
       </c>
       <c r="M8" t="n">
-        <v>10.71035629773655</v>
+        <v>30.52952028794065</v>
       </c>
       <c r="N8" t="n">
-        <v>10.71035629773655</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="O8" t="n">
-        <v>20.6199382928386</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="P8" t="n">
-        <v>30.52952028794065</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="Q8" t="n">
         <v>40.03871513172544</v>
       </c>
       <c r="R8" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="S8" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="T8" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="U8" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="V8" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="W8" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="X8" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="Y8" t="n">
-        <v>31.13313425091136</v>
+        <v>29.92792848229982</v>
       </c>
     </row>
     <row r="9">
@@ -4857,7 +4857,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>21.02234760148574</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="C9" t="n">
         <v>10.91156095206012</v>
@@ -4881,16 +4881,16 @@
         <v>0.8007743026345088</v>
       </c>
       <c r="J9" t="n">
-        <v>10.3099691464193</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="K9" t="n">
-        <v>10.3099691464193</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="L9" t="n">
-        <v>20.21955114152135</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="M9" t="n">
-        <v>20.21955114152135</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="N9" t="n">
         <v>20.21955114152135</v>
@@ -4905,28 +4905,28 @@
         <v>40.03871513172544</v>
       </c>
       <c r="R9" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="S9" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="T9" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="U9" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="V9" t="n">
-        <v>31.13313425091136</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="W9" t="n">
-        <v>31.13313425091136</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="X9" t="n">
-        <v>31.13313425091136</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="Y9" t="n">
-        <v>31.13313425091136</v>
+        <v>19.81714183287421</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>29.92792848229982</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="C10" t="n">
-        <v>29.92792848229982</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="D10" t="n">
-        <v>29.92792848229982</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="E10" t="n">
-        <v>29.92792848229982</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="F10" t="n">
-        <v>19.81714183287421</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="G10" t="n">
-        <v>9.70635518344859</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="H10" t="n">
-        <v>9.70635518344859</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="I10" t="n">
-        <v>9.70635518344859</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="J10" t="n">
         <v>0.8007743026345088</v>
@@ -4966,13 +4966,13 @@
         <v>10.71035629773655</v>
       </c>
       <c r="L10" t="n">
-        <v>20.21955114152135</v>
+        <v>20.6199382928386</v>
       </c>
       <c r="M10" t="n">
-        <v>30.12913313662339</v>
+        <v>30.52952028794065</v>
       </c>
       <c r="N10" t="n">
-        <v>30.12913313662339</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="O10" t="n">
         <v>40.03871513172544</v>
@@ -4981,31 +4981,31 @@
         <v>40.03871513172544</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.92792848229982</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="R10" t="n">
-        <v>29.92792848229982</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="S10" t="n">
-        <v>29.92792848229982</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="T10" t="n">
-        <v>29.92792848229982</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="U10" t="n">
-        <v>29.92792848229982</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="V10" t="n">
-        <v>29.92792848229982</v>
+        <v>31.13313425091136</v>
       </c>
       <c r="W10" t="n">
-        <v>29.92792848229982</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="X10" t="n">
-        <v>29.92792848229982</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="Y10" t="n">
-        <v>29.92792848229982</v>
+        <v>0.8007743026345088</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1371.861843394905</v>
+        <v>1254.721983990579</v>
       </c>
       <c r="C11" t="n">
-        <v>1087.365877321015</v>
+        <v>970.22601791669</v>
       </c>
       <c r="D11" t="n">
-        <v>1037.653372866724</v>
+        <v>970.22601791669</v>
       </c>
       <c r="E11" t="n">
-        <v>740.3054455661338</v>
+        <v>970.22601791669</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5920474696076</v>
+        <v>653.5126198201638</v>
       </c>
       <c r="G11" t="n">
-        <v>105.4592756539309</v>
+        <v>335.3798480044871</v>
       </c>
       <c r="H11" t="n">
-        <v>105.4592756539309</v>
+        <v>105.4592756539308</v>
       </c>
       <c r="I11" t="n">
         <v>50.64462638624713</v>
@@ -5042,22 +5042,22 @@
         <v>167.01576435699</v>
       </c>
       <c r="K11" t="n">
-        <v>473.659151946673</v>
+        <v>448.7575520858906</v>
       </c>
       <c r="L11" t="n">
-        <v>904.0473964139633</v>
+        <v>879.1457965531808</v>
       </c>
       <c r="M11" t="n">
-        <v>1213.295771791816</v>
+        <v>1364.185303820574</v>
       </c>
       <c r="N11" t="n">
-        <v>1684.91289698575</v>
+        <v>1835.802429014509</v>
       </c>
       <c r="O11" t="n">
-        <v>2078.004585497505</v>
+        <v>2228.894117526263</v>
       </c>
       <c r="P11" t="n">
-        <v>2381.341787283598</v>
+        <v>2532.231319312356</v>
       </c>
       <c r="Q11" t="n">
         <v>2532.231319312356</v>
@@ -5066,25 +5066,25 @@
         <v>2532.231319312356</v>
       </c>
       <c r="S11" t="n">
-        <v>2454.595493479073</v>
+        <v>2454.595493479074</v>
       </c>
       <c r="T11" t="n">
-        <v>2330.00939520737</v>
+        <v>2371.565623142112</v>
       </c>
       <c r="U11" t="n">
-        <v>2172.604525285615</v>
+        <v>2371.565623142112</v>
       </c>
       <c r="V11" t="n">
-        <v>1933.063043774859</v>
+        <v>2132.024141631357</v>
       </c>
       <c r="W11" t="n">
-        <v>1667.965906225764</v>
+        <v>2132.024141631357</v>
       </c>
       <c r="X11" t="n">
-        <v>1667.965906225764</v>
+        <v>1847.431793746154</v>
       </c>
       <c r="Y11" t="n">
-        <v>1371.861843394905</v>
+        <v>1551.327730915295</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5112,31 @@
         <v>206.3818693314734</v>
       </c>
       <c r="H12" t="n">
-        <v>109.2004330281183</v>
+        <v>109.2004330281182</v>
       </c>
       <c r="I12" t="n">
         <v>50.64462638624713</v>
       </c>
       <c r="J12" t="n">
-        <v>137.3267857431459</v>
+        <v>50.64462638624713</v>
       </c>
       <c r="K12" t="n">
-        <v>137.3267857431459</v>
+        <v>50.64462638624713</v>
       </c>
       <c r="L12" t="n">
-        <v>563.8848444057575</v>
+        <v>477.2026850488587</v>
       </c>
       <c r="M12" t="n">
-        <v>1119.794494319609</v>
+        <v>1033.112334962711</v>
       </c>
       <c r="N12" t="n">
-        <v>1703.812321513159</v>
+        <v>1617.13016215626</v>
       </c>
       <c r="O12" t="n">
-        <v>2162.566304684492</v>
+        <v>2075.884145327593</v>
       </c>
       <c r="P12" t="n">
-        <v>2338.752856732386</v>
+        <v>2431.395543101145</v>
       </c>
       <c r="Q12" t="n">
         <v>2532.231319312356</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>458.6907570340525</v>
+        <v>330.8784795101021</v>
       </c>
       <c r="C13" t="n">
-        <v>386.5125800890361</v>
+        <v>330.8784795101021</v>
       </c>
       <c r="D13" t="n">
-        <v>330.8784795101022</v>
+        <v>330.8784795101021</v>
       </c>
       <c r="E13" t="n">
-        <v>276.3072578647245</v>
+        <v>276.3072578647244</v>
       </c>
       <c r="F13" t="n">
         <v>221.2643954838049</v>
@@ -5191,7 +5191,7 @@
         <v>150.0217142518283</v>
       </c>
       <c r="H13" t="n">
-        <v>90.214232180031</v>
+        <v>90.21423218003095</v>
       </c>
       <c r="I13" t="n">
         <v>50.64462638624713</v>
@@ -5200,16 +5200,16 @@
         <v>103.8613933106498</v>
       </c>
       <c r="K13" t="n">
-        <v>260.2105359793086</v>
+        <v>260.2105359793088</v>
       </c>
       <c r="L13" t="n">
-        <v>491.1821186069844</v>
+        <v>491.1821186069846</v>
       </c>
       <c r="M13" t="n">
-        <v>741.4354213144711</v>
+        <v>741.4354213144713</v>
       </c>
       <c r="N13" t="n">
-        <v>991.2434648469799</v>
+        <v>991.24346484698</v>
       </c>
       <c r="O13" t="n">
         <v>1218.353272115542</v>
@@ -5227,22 +5227,22 @@
         <v>1329.122078544583</v>
       </c>
       <c r="T13" t="n">
-        <v>1194.403273946555</v>
+        <v>1217.163609628985</v>
       </c>
       <c r="U13" t="n">
-        <v>1004.66387838206</v>
+        <v>1027.42421406449</v>
       </c>
       <c r="V13" t="n">
-        <v>841.3663665337858</v>
+        <v>864.1267022162161</v>
       </c>
       <c r="W13" t="n">
-        <v>803.2203708508694</v>
+        <v>675.4080933269187</v>
       </c>
       <c r="X13" t="n">
-        <v>669.4056993395485</v>
+        <v>541.593421815598</v>
       </c>
       <c r="Y13" t="n">
-        <v>544.8083331251289</v>
+        <v>416.9960556011786</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1075.25609647019</v>
+        <v>1827.456083470641</v>
       </c>
       <c r="C14" t="n">
-        <v>970.2260179166897</v>
+        <v>1542.960117396752</v>
       </c>
       <c r="D14" t="n">
-        <v>970.2260179166897</v>
+        <v>1267.573945217279</v>
       </c>
       <c r="E14" t="n">
         <v>970.2260179166897</v>
@@ -5279,7 +5279,7 @@
         <v>167.01576435699</v>
       </c>
       <c r="K14" t="n">
-        <v>473.659151946673</v>
+        <v>297.8680200571322</v>
       </c>
       <c r="L14" t="n">
         <v>728.2562645244225</v>
@@ -5303,25 +5303,25 @@
         <v>2532.231319312356</v>
       </c>
       <c r="S14" t="n">
-        <v>2454.595493479073</v>
+        <v>2487.687726083958</v>
       </c>
       <c r="T14" t="n">
-        <v>2330.00939520737</v>
+        <v>2363.101627812255</v>
       </c>
       <c r="U14" t="n">
-        <v>2172.604525285615</v>
+        <v>2363.101627812255</v>
       </c>
       <c r="V14" t="n">
-        <v>1933.063043774859</v>
+        <v>2123.5601463015</v>
       </c>
       <c r="W14" t="n">
-        <v>1667.965906225764</v>
+        <v>2123.5601463015</v>
       </c>
       <c r="X14" t="n">
-        <v>1667.965906225764</v>
+        <v>2123.5601463015</v>
       </c>
       <c r="Y14" t="n">
-        <v>1371.861843394905</v>
+        <v>1827.456083470641</v>
       </c>
     </row>
     <row r="15">
@@ -5367,13 +5367,13 @@
         <v>1307.772570830711</v>
       </c>
       <c r="N15" t="n">
-        <v>1524.487475787501</v>
+        <v>1717.965938367472</v>
       </c>
       <c r="O15" t="n">
-        <v>1983.241458958833</v>
+        <v>2176.719921538804</v>
       </c>
       <c r="P15" t="n">
-        <v>2338.752856732385</v>
+        <v>2532.231319312356</v>
       </c>
       <c r="Q15" t="n">
         <v>2532.231319312356</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>387.4480758020752</v>
+        <v>458.6907570340518</v>
       </c>
       <c r="C16" t="n">
-        <v>315.269898857059</v>
+        <v>386.5125800890356</v>
       </c>
       <c r="D16" t="n">
-        <v>259.6357982781252</v>
+        <v>330.8784795101018</v>
       </c>
       <c r="E16" t="n">
-        <v>205.0645766327475</v>
+        <v>276.3072578647241</v>
       </c>
       <c r="F16" t="n">
-        <v>150.0217142518281</v>
+        <v>221.2643954838047</v>
       </c>
       <c r="G16" t="n">
         <v>150.0217142518281</v>
       </c>
       <c r="H16" t="n">
-        <v>90.2142321800309</v>
+        <v>90.21423218003088</v>
       </c>
       <c r="I16" t="n">
         <v>50.64462638624713</v>
@@ -5440,7 +5440,7 @@
         <v>260.2105359793089</v>
       </c>
       <c r="L16" t="n">
-        <v>491.1821186069848</v>
+        <v>491.1821186069847</v>
       </c>
       <c r="M16" t="n">
         <v>741.4354213144716</v>
@@ -5464,22 +5464,22 @@
         <v>1329.122078544584</v>
       </c>
       <c r="T16" t="n">
-        <v>1273.733205920958</v>
+        <v>1194.403273946556</v>
       </c>
       <c r="U16" t="n">
-        <v>1083.993810356463</v>
+        <v>1004.663878382061</v>
       </c>
       <c r="V16" t="n">
-        <v>920.6962985081893</v>
+        <v>841.3663665337872</v>
       </c>
       <c r="W16" t="n">
-        <v>731.9776896188919</v>
+        <v>803.2203708508684</v>
       </c>
       <c r="X16" t="n">
-        <v>598.163018107571</v>
+        <v>669.4056993395476</v>
       </c>
       <c r="Y16" t="n">
-        <v>473.5656518931515</v>
+        <v>544.8083331251281</v>
       </c>
     </row>
     <row r="17">
@@ -5489,49 +5489,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1427.132911176487</v>
+        <v>1251.341779286947</v>
       </c>
       <c r="C17" t="n">
-        <v>1200.221698940343</v>
+        <v>1024.430567050803</v>
       </c>
       <c r="D17" t="n">
-        <v>982.4202805986152</v>
+        <v>806.629148709075</v>
       </c>
       <c r="E17" t="n">
-        <v>742.6571071357707</v>
+        <v>566.8659752462304</v>
       </c>
       <c r="F17" t="n">
         <v>483.5284628769897</v>
       </c>
       <c r="G17" t="n">
-        <v>222.9804448990582</v>
+        <v>222.9804448990583</v>
       </c>
       <c r="H17" t="n">
-        <v>50.64462638624712</v>
+        <v>50.64462638624713</v>
       </c>
       <c r="I17" t="n">
-        <v>50.64462638624712</v>
+        <v>50.64462638624713</v>
       </c>
       <c r="J17" t="n">
-        <v>167.01576435699</v>
+        <v>50.64462638624713</v>
       </c>
       <c r="K17" t="n">
-        <v>473.659151946673</v>
+        <v>357.2880139759301</v>
       </c>
       <c r="L17" t="n">
-        <v>728.256264524422</v>
+        <v>787.6762584432204</v>
       </c>
       <c r="M17" t="n">
-        <v>1213.295771791815</v>
+        <v>1272.715765710614</v>
       </c>
       <c r="N17" t="n">
-        <v>1684.91289698575</v>
+        <v>1744.332890904548</v>
       </c>
       <c r="O17" t="n">
-        <v>2078.004585497504</v>
+        <v>2137.424579416303</v>
       </c>
       <c r="P17" t="n">
-        <v>2381.341787283598</v>
+        <v>2440.761781202396</v>
       </c>
       <c r="Q17" t="n">
         <v>2532.231319312356</v>
@@ -5540,25 +5540,25 @@
         <v>2532.231319312356</v>
       </c>
       <c r="S17" t="n">
-        <v>2512.180247316818</v>
+        <v>2512.180247316819</v>
       </c>
       <c r="T17" t="n">
-        <v>2445.17890288286</v>
+        <v>2445.178902882861</v>
       </c>
       <c r="U17" t="n">
         <v>2345.358786798849</v>
       </c>
       <c r="V17" t="n">
-        <v>2163.402059125839</v>
+        <v>2163.40205912584</v>
       </c>
       <c r="W17" t="n">
-        <v>2131.680807304029</v>
+        <v>1955.889675414489</v>
       </c>
       <c r="X17" t="n">
-        <v>1904.673213256571</v>
+        <v>1728.882081367031</v>
       </c>
       <c r="Y17" t="n">
-        <v>1666.153904263458</v>
+        <v>1490.362772373918</v>
       </c>
     </row>
     <row r="18">
@@ -5568,19 +5568,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>917.0890810656496</v>
+        <v>917.0890810656493</v>
       </c>
       <c r="C18" t="n">
-        <v>755.3854083066044</v>
+        <v>755.3854083066041</v>
       </c>
       <c r="D18" t="n">
-        <v>616.5467712968164</v>
+        <v>616.5467712968161</v>
       </c>
       <c r="E18" t="n">
-        <v>469.5187613536875</v>
+        <v>469.5187613536874</v>
       </c>
       <c r="F18" t="n">
-        <v>334.8249633035619</v>
+        <v>334.8249633035617</v>
       </c>
       <c r="G18" t="n">
         <v>206.381869331473</v>
@@ -5589,7 +5589,7 @@
         <v>109.2004330281182</v>
       </c>
       <c r="I18" t="n">
-        <v>50.64462638624712</v>
+        <v>50.64462638624713</v>
       </c>
       <c r="J18" t="n">
         <v>137.3267857431459</v>
@@ -5604,13 +5604,13 @@
         <v>1394.45473018761</v>
       </c>
       <c r="N18" t="n">
-        <v>1524.487475787501</v>
+        <v>1717.965938367472</v>
       </c>
       <c r="O18" t="n">
-        <v>1983.241458958833</v>
+        <v>2176.719921538804</v>
       </c>
       <c r="P18" t="n">
-        <v>2338.752856732385</v>
+        <v>2532.231319312356</v>
       </c>
       <c r="Q18" t="n">
         <v>2532.231319312356</v>
@@ -5634,10 +5634,10 @@
         <v>1466.946838319537</v>
       </c>
       <c r="X18" t="n">
-        <v>1269.029850197332</v>
+        <v>1269.029850197331</v>
       </c>
       <c r="Y18" t="n">
-        <v>1076.508523846911</v>
+        <v>1076.50852384691</v>
       </c>
     </row>
     <row r="19">
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>106.5464298065486</v>
+        <v>81.11870512180198</v>
       </c>
       <c r="C19" t="n">
-        <v>91.95300669927752</v>
+        <v>66.5252820145308</v>
       </c>
       <c r="D19" t="n">
-        <v>91.95300669927752</v>
+        <v>66.5252820145308</v>
       </c>
       <c r="E19" t="n">
-        <v>66.52528201453069</v>
+        <v>66.5252820145308</v>
       </c>
       <c r="F19" t="n">
-        <v>66.52528201453069</v>
+        <v>66.5252820145308</v>
       </c>
       <c r="G19" t="n">
-        <v>52.86735462029922</v>
+        <v>52.86735462029929</v>
       </c>
       <c r="H19" t="n">
-        <v>50.64462638624712</v>
+        <v>50.64462638624713</v>
       </c>
       <c r="I19" t="n">
-        <v>50.64462638624712</v>
+        <v>50.64462638624713</v>
       </c>
       <c r="J19" t="n">
-        <v>50.64462638624712</v>
+        <v>50.64462638624713</v>
       </c>
       <c r="K19" t="n">
         <v>111.4949885342094</v>
@@ -5698,25 +5698,25 @@
         <v>778.9743965084192</v>
       </c>
       <c r="S19" t="n">
-        <v>724.4570876592434</v>
+        <v>699.0293629744972</v>
       </c>
       <c r="T19" t="n">
-        <v>647.3230368989605</v>
+        <v>621.8953122142143</v>
       </c>
       <c r="U19" t="n">
-        <v>515.1683951722109</v>
+        <v>489.7406704874646</v>
       </c>
       <c r="V19" t="n">
-        <v>409.4556371616821</v>
+        <v>384.0279124769357</v>
       </c>
       <c r="W19" t="n">
-        <v>278.3217821101298</v>
+        <v>252.8940574253834</v>
       </c>
       <c r="X19" t="n">
-        <v>202.0918644365542</v>
+        <v>176.6641397518077</v>
       </c>
       <c r="Y19" t="n">
-        <v>135.0792520598799</v>
+        <v>109.6515273751333</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1251.341779286947</v>
+        <v>1427.132911176488</v>
       </c>
       <c r="C20" t="n">
-        <v>1200.221698940345</v>
+        <v>1200.221698940343</v>
       </c>
       <c r="D20" t="n">
-        <v>982.420280598617</v>
+        <v>982.4202805986155</v>
       </c>
       <c r="E20" t="n">
-        <v>742.6571071357724</v>
+        <v>742.6571071357708</v>
       </c>
       <c r="F20" t="n">
-        <v>483.5284628769914</v>
+        <v>483.5284628769897</v>
       </c>
       <c r="G20" t="n">
-        <v>222.9804448990582</v>
+        <v>222.9804448990583</v>
       </c>
       <c r="H20" t="n">
-        <v>50.64462638624712</v>
+        <v>50.64462638624713</v>
       </c>
       <c r="I20" t="n">
-        <v>50.64462638624712</v>
+        <v>50.64462638624713</v>
       </c>
       <c r="J20" t="n">
         <v>167.01576435699</v>
@@ -5759,13 +5759,13 @@
         <v>904.0473964139633</v>
       </c>
       <c r="M20" t="n">
-        <v>1213.295771791815</v>
+        <v>1389.086903681357</v>
       </c>
       <c r="N20" t="n">
-        <v>1684.91289698575</v>
+        <v>1860.704028875291</v>
       </c>
       <c r="O20" t="n">
-        <v>2078.004585497504</v>
+        <v>2253.795717387045</v>
       </c>
       <c r="P20" t="n">
         <v>2381.341787283598</v>
@@ -5777,25 +5777,25 @@
         <v>2532.231319312356</v>
       </c>
       <c r="S20" t="n">
-        <v>2512.180247316818</v>
+        <v>2512.180247316819</v>
       </c>
       <c r="T20" t="n">
-        <v>2445.17890288286</v>
+        <v>2445.178902882861</v>
       </c>
       <c r="U20" t="n">
-        <v>2345.358786798849</v>
+        <v>2445.178902882861</v>
       </c>
       <c r="V20" t="n">
-        <v>2163.40205912584</v>
+        <v>2263.222175209851</v>
       </c>
       <c r="W20" t="n">
-        <v>1955.889675414489</v>
+        <v>2131.68080730403</v>
       </c>
       <c r="X20" t="n">
-        <v>1728.882081367031</v>
+        <v>1904.673213256572</v>
       </c>
       <c r="Y20" t="n">
-        <v>1490.362772373918</v>
+        <v>1666.153904263458</v>
       </c>
     </row>
     <row r="21">
@@ -5805,46 +5805,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>917.0890810656493</v>
+        <v>917.08908106565</v>
       </c>
       <c r="C21" t="n">
-        <v>755.3854083066041</v>
+        <v>755.3854083066049</v>
       </c>
       <c r="D21" t="n">
-        <v>616.5467712968161</v>
+        <v>616.5467712968168</v>
       </c>
       <c r="E21" t="n">
-        <v>469.5187613536874</v>
+        <v>469.518761353688</v>
       </c>
       <c r="F21" t="n">
-        <v>334.8249633035617</v>
+        <v>334.8249633035624</v>
       </c>
       <c r="G21" t="n">
-        <v>206.381869331473</v>
+        <v>206.3818693314734</v>
       </c>
       <c r="H21" t="n">
         <v>109.2004330281182</v>
       </c>
       <c r="I21" t="n">
-        <v>50.64462638624712</v>
+        <v>50.64462638624713</v>
       </c>
       <c r="J21" t="n">
-        <v>50.64462638624712</v>
+        <v>137.3267857431459</v>
       </c>
       <c r="K21" t="n">
-        <v>325.3048622542476</v>
+        <v>411.9870216111464</v>
       </c>
       <c r="L21" t="n">
-        <v>751.8629209168591</v>
+        <v>838.545080273758</v>
       </c>
       <c r="M21" t="n">
-        <v>1307.772570830711</v>
+        <v>1394.45473018761</v>
       </c>
       <c r="N21" t="n">
         <v>1717.965938367472</v>
       </c>
       <c r="O21" t="n">
-        <v>2176.719921538804</v>
+        <v>2176.719921538805</v>
       </c>
       <c r="P21" t="n">
         <v>2532.231319312356</v>
@@ -5853,28 +5853,28 @@
         <v>2532.231319312356</v>
       </c>
       <c r="R21" t="n">
-        <v>2490.167258308597</v>
+        <v>2490.167258308598</v>
       </c>
       <c r="S21" t="n">
         <v>2342.669062679206</v>
       </c>
       <c r="T21" t="n">
-        <v>2155.134345328752</v>
+        <v>2155.134345328753</v>
       </c>
       <c r="U21" t="n">
-        <v>1936.658329637893</v>
+        <v>1936.658329637894</v>
       </c>
       <c r="V21" t="n">
         <v>1708.262707086227</v>
       </c>
       <c r="W21" t="n">
-        <v>1466.946838319537</v>
+        <v>1466.946838319538</v>
       </c>
       <c r="X21" t="n">
-        <v>1269.029850197331</v>
+        <v>1269.029850197332</v>
       </c>
       <c r="Y21" t="n">
-        <v>1076.50852384691</v>
+        <v>1076.508523846911</v>
       </c>
     </row>
     <row r="22">
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>81.11870512180181</v>
+        <v>106.5464298065481</v>
       </c>
       <c r="C22" t="n">
-        <v>66.52528201453069</v>
+        <v>66.5252820145308</v>
       </c>
       <c r="D22" t="n">
-        <v>66.52528201453069</v>
+        <v>66.5252820145308</v>
       </c>
       <c r="E22" t="n">
-        <v>66.52528201453069</v>
+        <v>66.5252820145308</v>
       </c>
       <c r="F22" t="n">
-        <v>66.52528201453069</v>
+        <v>66.5252820145308</v>
       </c>
       <c r="G22" t="n">
-        <v>52.86735462029922</v>
+        <v>52.86735462029929</v>
       </c>
       <c r="H22" t="n">
-        <v>50.64462638624712</v>
+        <v>50.64462638624713</v>
       </c>
       <c r="I22" t="n">
-        <v>50.64462638624712</v>
+        <v>50.64462638624713</v>
       </c>
       <c r="J22" t="n">
-        <v>50.64462638624712</v>
+        <v>50.64462638624713</v>
       </c>
       <c r="K22" t="n">
         <v>111.4949885342094</v>
@@ -5935,25 +5935,25 @@
         <v>778.9743965084192</v>
       </c>
       <c r="S22" t="n">
-        <v>724.4570876592434</v>
+        <v>724.4570876592433</v>
       </c>
       <c r="T22" t="n">
-        <v>647.3230368989605</v>
+        <v>647.3230368989604</v>
       </c>
       <c r="U22" t="n">
-        <v>515.1683951722109</v>
+        <v>515.1683951722107</v>
       </c>
       <c r="V22" t="n">
-        <v>409.4556371616821</v>
+        <v>409.4556371616818</v>
       </c>
       <c r="W22" t="n">
-        <v>278.3217821101298</v>
+        <v>278.3217821101294</v>
       </c>
       <c r="X22" t="n">
-        <v>202.0918644365542</v>
+        <v>202.0918644365537</v>
       </c>
       <c r="Y22" t="n">
-        <v>109.651527375133</v>
+        <v>135.0792520598794</v>
       </c>
     </row>
     <row r="23">
@@ -5963,49 +5963,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1430.720485296682</v>
+        <v>1430.720485296683</v>
       </c>
       <c r="C23" t="n">
-        <v>1203.809273060538</v>
+        <v>1203.809273060539</v>
       </c>
       <c r="D23" t="n">
-        <v>986.0078547188104</v>
+        <v>986.0078547188107</v>
       </c>
       <c r="E23" t="n">
-        <v>746.2446812559665</v>
+        <v>746.244681255966</v>
       </c>
       <c r="F23" t="n">
-        <v>487.1160369971853</v>
+        <v>487.1160369971849</v>
       </c>
       <c r="G23" t="n">
-        <v>226.5680190192529</v>
+        <v>226.568019019253</v>
       </c>
       <c r="H23" t="n">
-        <v>54.23220050644183</v>
+        <v>54.23220050644185</v>
       </c>
       <c r="I23" t="n">
-        <v>54.23220050644183</v>
+        <v>54.23220050644185</v>
       </c>
       <c r="J23" t="n">
-        <v>170.6033384771845</v>
+        <v>170.6033384771847</v>
       </c>
       <c r="K23" t="n">
-        <v>477.2467260668675</v>
+        <v>477.2467260668677</v>
       </c>
       <c r="L23" t="n">
-        <v>907.6349705341578</v>
+        <v>907.634970534158</v>
       </c>
       <c r="M23" t="n">
-        <v>1392.674477801551</v>
+        <v>1392.674477801552</v>
       </c>
       <c r="N23" t="n">
-        <v>1864.291602995486</v>
+        <v>1864.291602995487</v>
       </c>
       <c r="O23" t="n">
-        <v>2257.38329150724</v>
+        <v>2257.383291507241</v>
       </c>
       <c r="P23" t="n">
-        <v>2560.720493293333</v>
+        <v>2560.720493293334</v>
       </c>
       <c r="Q23" t="n">
         <v>2711.610025322092</v>
@@ -6020,10 +6020,10 @@
         <v>2624.557608892596</v>
       </c>
       <c r="U23" t="n">
-        <v>2524.737492808585</v>
+        <v>2524.737492808586</v>
       </c>
       <c r="V23" t="n">
-        <v>2342.780765135575</v>
+        <v>2342.780765135576</v>
       </c>
       <c r="W23" t="n">
         <v>2135.268381424225</v>
@@ -6057,34 +6057,34 @@
         <v>338.4125374237565</v>
       </c>
       <c r="G24" t="n">
-        <v>209.9694434516677</v>
+        <v>209.9694434516678</v>
       </c>
       <c r="H24" t="n">
-        <v>112.7880071483129</v>
+        <v>112.788007148313</v>
       </c>
       <c r="I24" t="n">
-        <v>54.23220050644183</v>
+        <v>54.23220050644185</v>
       </c>
       <c r="J24" t="n">
         <v>140.9143598633406</v>
       </c>
       <c r="K24" t="n">
-        <v>415.574595731341</v>
+        <v>155.0679767176532</v>
       </c>
       <c r="L24" t="n">
-        <v>842.1326543939526</v>
+        <v>581.6260353802647</v>
       </c>
       <c r="M24" t="n">
-        <v>1398.042304307805</v>
+        <v>1137.535685294117</v>
       </c>
       <c r="N24" t="n">
-        <v>1982.060131501354</v>
+        <v>1721.553512487666</v>
       </c>
       <c r="O24" t="n">
-        <v>2342.34043085258</v>
+        <v>2180.307495658999</v>
       </c>
       <c r="P24" t="n">
-        <v>2342.34043085258</v>
+        <v>2535.818893432551</v>
       </c>
       <c r="Q24" t="n">
         <v>2535.818893432551</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>110.1340039267435</v>
+        <v>110.1340039267429</v>
       </c>
       <c r="C25" t="n">
-        <v>95.54058081947238</v>
+        <v>95.54058081947176</v>
       </c>
       <c r="D25" t="n">
-        <v>95.54058081947238</v>
+        <v>95.54058081947176</v>
       </c>
       <c r="E25" t="n">
-        <v>95.54058081947238</v>
+        <v>95.54058081947176</v>
       </c>
       <c r="F25" t="n">
-        <v>70.1128561347254</v>
+        <v>70.11285613472553</v>
       </c>
       <c r="G25" t="n">
-        <v>56.45492874049394</v>
+        <v>56.45492874049401</v>
       </c>
       <c r="H25" t="n">
-        <v>54.23220050644183</v>
+        <v>54.23220050644185</v>
       </c>
       <c r="I25" t="n">
-        <v>54.23220050644183</v>
+        <v>54.23220050644185</v>
       </c>
       <c r="J25" t="n">
-        <v>54.23220050644183</v>
+        <v>54.23220050644185</v>
       </c>
       <c r="K25" t="n">
         <v>115.0825626544041</v>
@@ -6172,25 +6172,25 @@
         <v>782.5619706286139</v>
       </c>
       <c r="S25" t="n">
-        <v>728.0446617794381</v>
+        <v>728.044661779438</v>
       </c>
       <c r="T25" t="n">
-        <v>650.9106110191553</v>
+        <v>650.9106110191551</v>
       </c>
       <c r="U25" t="n">
-        <v>518.7559692924058</v>
+        <v>518.7559692924056</v>
       </c>
       <c r="V25" t="n">
-        <v>413.043211281877</v>
+        <v>413.0432112818767</v>
       </c>
       <c r="W25" t="n">
-        <v>281.9093562303247</v>
+        <v>281.9093562303243</v>
       </c>
       <c r="X25" t="n">
-        <v>205.6794385567491</v>
+        <v>205.6794385567486</v>
       </c>
       <c r="Y25" t="n">
-        <v>138.6668261800747</v>
+        <v>138.6668261800742</v>
       </c>
     </row>
     <row r="26">
@@ -6209,34 +6209,34 @@
         <v>1255.22081166256</v>
       </c>
       <c r="E26" t="n">
-        <v>964.1886377429967</v>
+        <v>964.1886377429969</v>
       </c>
       <c r="F26" t="n">
-        <v>653.7909930274971</v>
+        <v>653.7909930274973</v>
       </c>
       <c r="G26" t="n">
-        <v>341.9739745928471</v>
+        <v>341.9739745928472</v>
       </c>
       <c r="H26" t="n">
-        <v>118.3691556233175</v>
+        <v>118.3691556233176</v>
       </c>
       <c r="I26" t="n">
-        <v>69.87025973666051</v>
+        <v>69.87025973666053</v>
       </c>
       <c r="J26" t="n">
-        <v>194.9893038207554</v>
+        <v>287.9302481168443</v>
       </c>
       <c r="K26" t="n">
-        <v>603.3215418198794</v>
+        <v>696.2624861159683</v>
       </c>
       <c r="L26" t="n">
-        <v>1135.398636696611</v>
+        <v>1228.339580992699</v>
       </c>
       <c r="M26" t="n">
-        <v>1722.126994373445</v>
+        <v>1815.067938669534</v>
       </c>
       <c r="N26" t="n">
-        <v>2295.43296997682</v>
+        <v>2388.373914272909</v>
       </c>
       <c r="O26" t="n">
         <v>2790.213508898016</v>
@@ -6245,7 +6245,7 @@
         <v>3195.23956109355</v>
       </c>
       <c r="Q26" t="n">
-        <v>3447.817943531749</v>
+        <v>3447.81794353175</v>
       </c>
       <c r="R26" t="n">
         <v>3493.512986833026</v>
@@ -6254,16 +6254,16 @@
         <v>3422.19291438077</v>
       </c>
       <c r="T26" t="n">
-        <v>3303.922569490093</v>
+        <v>3303.922569490094</v>
       </c>
       <c r="U26" t="n">
         <v>3152.833452949364</v>
       </c>
       <c r="V26" t="n">
-        <v>2919.607724819635</v>
+        <v>2919.607724819636</v>
       </c>
       <c r="W26" t="n">
-        <v>2660.826340651566</v>
+        <v>2660.826340651567</v>
       </c>
       <c r="X26" t="n">
         <v>2382.54974614739</v>
@@ -6300,28 +6300,28 @@
         <v>128.4260663785316</v>
       </c>
       <c r="I27" t="n">
-        <v>69.87025973666051</v>
+        <v>69.87025973666053</v>
       </c>
       <c r="J27" t="n">
-        <v>156.5524190935593</v>
+        <v>69.87025973666053</v>
       </c>
       <c r="K27" t="n">
-        <v>431.2126549615598</v>
+        <v>344.530495604661</v>
       </c>
       <c r="L27" t="n">
-        <v>857.7707136241714</v>
+        <v>771.0885542672727</v>
       </c>
       <c r="M27" t="n">
-        <v>1413.680363538024</v>
+        <v>1326.998204181125</v>
       </c>
       <c r="N27" t="n">
-        <v>1543.713109137914</v>
+        <v>1737.191571717885</v>
       </c>
       <c r="O27" t="n">
-        <v>2002.467092309247</v>
+        <v>2195.945554889217</v>
       </c>
       <c r="P27" t="n">
-        <v>2357.978490082799</v>
+        <v>2551.456952662769</v>
       </c>
       <c r="Q27" t="n">
         <v>2551.456952662769</v>
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>433.7061167172791</v>
+        <v>433.7061167172792</v>
       </c>
       <c r="C28" t="n">
-        <v>367.8436931532895</v>
+        <v>367.8436931532896</v>
       </c>
       <c r="D28" t="n">
-        <v>318.5253459553823</v>
+        <v>318.5253459553824</v>
       </c>
       <c r="E28" t="n">
         <v>270.2698776910312</v>
@@ -6379,25 +6379,25 @@
         <v>103.1241121494177</v>
       </c>
       <c r="I28" t="n">
-        <v>69.87025973666051</v>
+        <v>69.87025973666053</v>
       </c>
       <c r="J28" t="n">
-        <v>129.2770965498075</v>
+        <v>129.277096549807</v>
       </c>
       <c r="K28" t="n">
-        <v>291.8163091072106</v>
+        <v>291.8163091072103</v>
       </c>
       <c r="L28" t="n">
-        <v>528.9779616236307</v>
+        <v>528.9779616236301</v>
       </c>
       <c r="M28" t="n">
-        <v>785.4213342198617</v>
+        <v>785.4213342198611</v>
       </c>
       <c r="N28" t="n">
         <v>1041.419447641114</v>
       </c>
       <c r="O28" t="n">
-        <v>1274.71932479842</v>
+        <v>1274.719324798421</v>
       </c>
       <c r="P28" t="n">
         <v>1467.739969128625</v>
@@ -6409,7 +6409,7 @@
         <v>1516.286087072898</v>
       </c>
       <c r="S28" t="n">
-        <v>1410.499777767003</v>
+        <v>1410.499777767004</v>
       </c>
       <c r="T28" t="n">
         <v>1282.096726550002</v>
@@ -6418,16 +6418,16 @@
         <v>1098.673084366534</v>
       </c>
       <c r="V28" t="n">
-        <v>941.6913258992868</v>
+        <v>941.691325899287</v>
       </c>
       <c r="W28" t="n">
-        <v>759.2884703910159</v>
+        <v>759.2884703910162</v>
       </c>
       <c r="X28" t="n">
-        <v>631.7895522607218</v>
+        <v>631.789552260722</v>
       </c>
       <c r="Y28" t="n">
-        <v>513.5079394273289</v>
+        <v>513.507939427329</v>
       </c>
     </row>
     <row r="29">
@@ -6437,31 +6437,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1802.47144315387</v>
+        <v>1802.471443153869</v>
       </c>
       <c r="C29" t="n">
         <v>1524.291230461007</v>
       </c>
       <c r="D29" t="n">
-        <v>1255.220811662561</v>
+        <v>1255.22081166256</v>
       </c>
       <c r="E29" t="n">
-        <v>964.1886377429976</v>
+        <v>964.1886377429971</v>
       </c>
       <c r="F29" t="n">
-        <v>653.790993027498</v>
+        <v>653.7909930274975</v>
       </c>
       <c r="G29" t="n">
-        <v>341.973974592848</v>
+        <v>341.9739745928472</v>
       </c>
       <c r="H29" t="n">
         <v>118.3691556233176</v>
       </c>
       <c r="I29" t="n">
-        <v>69.87025973666051</v>
+        <v>69.87025973666053</v>
       </c>
       <c r="J29" t="n">
-        <v>287.9302481168442</v>
+        <v>287.9302481168443</v>
       </c>
       <c r="K29" t="n">
         <v>696.2624861159682</v>
@@ -6473,22 +6473,22 @@
         <v>1815.067938669534</v>
       </c>
       <c r="N29" t="n">
-        <v>2388.373914272909</v>
+        <v>2295.432969976821</v>
       </c>
       <c r="O29" t="n">
-        <v>2883.154453194104</v>
+        <v>2790.213508898016</v>
       </c>
       <c r="P29" t="n">
         <v>3195.23956109355</v>
       </c>
       <c r="Q29" t="n">
-        <v>3447.817943531749</v>
+        <v>3447.81794353175</v>
       </c>
       <c r="R29" t="n">
         <v>3493.512986833026</v>
       </c>
       <c r="S29" t="n">
-        <v>3422.192914380771</v>
+        <v>3422.19291438077</v>
       </c>
       <c r="T29" t="n">
         <v>3303.922569490094</v>
@@ -6503,10 +6503,10 @@
         <v>2660.826340651567</v>
       </c>
       <c r="X29" t="n">
-        <v>2382.549746147391</v>
+        <v>2382.54974614739</v>
       </c>
       <c r="Y29" t="n">
-        <v>2092.761436697559</v>
+        <v>2092.761436697558</v>
       </c>
     </row>
     <row r="30">
@@ -6537,19 +6537,19 @@
         <v>128.4260663785316</v>
       </c>
       <c r="I30" t="n">
-        <v>69.87025973666051</v>
+        <v>69.87025973666053</v>
       </c>
       <c r="J30" t="n">
-        <v>156.5524190935593</v>
+        <v>69.87025973666053</v>
       </c>
       <c r="K30" t="n">
-        <v>431.2126549615597</v>
+        <v>344.5304956046609</v>
       </c>
       <c r="L30" t="n">
-        <v>857.7707136241713</v>
+        <v>771.0885542672725</v>
       </c>
       <c r="M30" t="n">
-        <v>959.6952819443646</v>
+        <v>1326.998204181124</v>
       </c>
       <c r="N30" t="n">
         <v>1543.713109137914</v>
@@ -6610,31 +6610,31 @@
         <v>221.5427686911383</v>
       </c>
       <c r="G31" t="n">
-        <v>156.6158408401883</v>
+        <v>156.6158408401882</v>
       </c>
       <c r="H31" t="n">
-        <v>103.1241121494177</v>
+        <v>103.1241121494176</v>
       </c>
       <c r="I31" t="n">
-        <v>69.87025973666051</v>
+        <v>69.87025973666053</v>
       </c>
       <c r="J31" t="n">
-        <v>129.2770965498075</v>
+        <v>129.2770965498071</v>
       </c>
       <c r="K31" t="n">
-        <v>291.8163091072107</v>
+        <v>291.8163091072103</v>
       </c>
       <c r="L31" t="n">
-        <v>528.9779616236308</v>
+        <v>528.9779616236302</v>
       </c>
       <c r="M31" t="n">
-        <v>785.4213342198618</v>
+        <v>785.4213342198614</v>
       </c>
       <c r="N31" t="n">
-        <v>1041.419447641115</v>
+        <v>1041.419447641114</v>
       </c>
       <c r="O31" t="n">
-        <v>1274.719324798421</v>
+        <v>1274.71932479842</v>
       </c>
       <c r="P31" t="n">
         <v>1467.739969128625</v>
@@ -6652,16 +6652,16 @@
         <v>1282.096726550002</v>
       </c>
       <c r="U31" t="n">
-        <v>1098.673084366535</v>
+        <v>1098.673084366534</v>
       </c>
       <c r="V31" t="n">
-        <v>941.6913258992871</v>
+        <v>941.6913258992867</v>
       </c>
       <c r="W31" t="n">
-        <v>759.2884703910163</v>
+        <v>759.2884703910158</v>
       </c>
       <c r="X31" t="n">
-        <v>631.7895522607221</v>
+        <v>631.7895522607216</v>
       </c>
       <c r="Y31" t="n">
         <v>513.5079394273289</v>
@@ -6686,43 +6686,43 @@
         <v>952.9244125526043</v>
       </c>
       <c r="F32" t="n">
-        <v>645.1426305590442</v>
+        <v>645.1426305590444</v>
       </c>
       <c r="G32" t="n">
-        <v>335.9414748463337</v>
+        <v>335.9414748463339</v>
       </c>
       <c r="H32" t="n">
-        <v>114.9525185987436</v>
+        <v>114.9525185987437</v>
       </c>
       <c r="I32" t="n">
-        <v>69.06948543402601</v>
+        <v>69.06948543402602</v>
       </c>
       <c r="J32" t="n">
         <v>289.6932808679826</v>
       </c>
       <c r="K32" t="n">
-        <v>700.5893259208794</v>
+        <v>700.5893259208793</v>
       </c>
       <c r="L32" t="n">
         <v>1235.230227851383</v>
       </c>
       <c r="M32" t="n">
-        <v>1720.269735118777</v>
+        <v>1773.52190143607</v>
       </c>
       <c r="N32" t="n">
-        <v>2296.139517775925</v>
+        <v>2349.391684093218</v>
       </c>
       <c r="O32" t="n">
-        <v>2793.483863750893</v>
+        <v>2846.736030068186</v>
       </c>
       <c r="P32" t="n">
-        <v>3201.0737230002</v>
+        <v>3254.325889317493</v>
       </c>
       <c r="Q32" t="n">
-        <v>3405.215421346251</v>
+        <v>3405.215421346252</v>
       </c>
       <c r="R32" t="n">
-        <v>3453.4742717013</v>
+        <v>3453.474271701301</v>
       </c>
       <c r="S32" t="n">
         <v>3384.770061970984</v>
@@ -6731,7 +6731,7 @@
         <v>3269.115579802247</v>
       </c>
       <c r="U32" t="n">
-        <v>3120.642325983456</v>
+        <v>3120.642325983457</v>
       </c>
       <c r="V32" t="n">
         <v>2890.032460575667</v>
@@ -6740,7 +6740,7 @@
         <v>2633.866939129538</v>
       </c>
       <c r="X32" t="n">
-        <v>2358.206207347301</v>
+        <v>2358.2062073473</v>
       </c>
       <c r="Y32" t="n">
         <v>2071.033760619408</v>
@@ -6774,22 +6774,22 @@
         <v>127.6252920758971</v>
       </c>
       <c r="I33" t="n">
-        <v>69.06948543402601</v>
+        <v>69.06948543402602</v>
       </c>
       <c r="J33" t="n">
-        <v>155.7516447909248</v>
+        <v>69.06948543402602</v>
       </c>
       <c r="K33" t="n">
-        <v>430.4118806589252</v>
+        <v>343.7297213020265</v>
       </c>
       <c r="L33" t="n">
-        <v>856.9699393215368</v>
+        <v>402.984857727878</v>
       </c>
       <c r="M33" t="n">
-        <v>1412.879589235389</v>
+        <v>958.89450764173</v>
       </c>
       <c r="N33" t="n">
-        <v>1996.897416428938</v>
+        <v>1542.91233483528</v>
       </c>
       <c r="O33" t="n">
         <v>2001.666318006612</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>414.5943033610685</v>
+        <v>414.5943033610688</v>
       </c>
       <c r="C34" t="n">
-        <v>351.3477425190183</v>
+        <v>351.3477425190185</v>
       </c>
       <c r="D34" t="n">
-        <v>304.6452580430505</v>
+        <v>304.6452580430507</v>
       </c>
       <c r="E34" t="n">
-        <v>259.0056525006389</v>
+        <v>259.005652500639</v>
       </c>
       <c r="F34" t="n">
-        <v>212.8944062226855</v>
+        <v>212.8944062226856</v>
       </c>
       <c r="G34" t="n">
-        <v>150.5833410936749</v>
+        <v>150.583341093675</v>
       </c>
       <c r="H34" t="n">
-        <v>99.70747512484374</v>
+        <v>99.7074751248438</v>
       </c>
       <c r="I34" t="n">
-        <v>69.06948543402601</v>
+        <v>69.06948543402602</v>
       </c>
       <c r="J34" t="n">
-        <v>69.06948543402601</v>
+        <v>131.0401293009458</v>
       </c>
       <c r="K34" t="n">
-        <v>234.172505045202</v>
+        <v>233.7788889309089</v>
       </c>
       <c r="L34" t="n">
-        <v>473.8979646153949</v>
+        <v>473.5043485011017</v>
       </c>
       <c r="M34" t="n">
-        <v>732.9051442653987</v>
+        <v>732.5115281511055</v>
       </c>
       <c r="N34" t="n">
-        <v>991.4670647404246</v>
+        <v>991.0734486261313</v>
       </c>
       <c r="O34" t="n">
-        <v>1227.330748951503</v>
+        <v>1226.93713283721</v>
       </c>
       <c r="P34" t="n">
-        <v>1422.91520033548</v>
+        <v>1422.521584221187</v>
       </c>
       <c r="Q34" t="n">
-        <v>1508.641079223445</v>
+        <v>1508.641079223446</v>
       </c>
       <c r="R34" t="n">
-        <v>1476.247371941172</v>
+        <v>1476.247371941173</v>
       </c>
       <c r="S34" t="n">
-        <v>1373.076925357217</v>
+        <v>1373.076925357218</v>
       </c>
       <c r="T34" t="n">
         <v>1247.289736862155</v>
       </c>
       <c r="U34" t="n">
-        <v>1066.481957400626</v>
+        <v>1066.481957400627</v>
       </c>
       <c r="V34" t="n">
-        <v>912.1160616553184</v>
+        <v>912.1160616553188</v>
       </c>
       <c r="W34" t="n">
-        <v>732.329068868987</v>
+        <v>732.3290688689874</v>
       </c>
       <c r="X34" t="n">
-        <v>607.4460134606322</v>
+        <v>607.4460134606326</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.7802633491788</v>
+        <v>491.7802633491792</v>
       </c>
     </row>
     <row r="35">
@@ -6911,37 +6911,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1430.720485296682</v>
+        <v>1430.720485296683</v>
       </c>
       <c r="C35" t="n">
-        <v>1203.809273060538</v>
+        <v>1203.809273060539</v>
       </c>
       <c r="D35" t="n">
-        <v>986.0078547188098</v>
+        <v>986.0078547188109</v>
       </c>
       <c r="E35" t="n">
-        <v>746.2446812559651</v>
+        <v>746.2446812559663</v>
       </c>
       <c r="F35" t="n">
-        <v>487.116036997184</v>
+        <v>487.1160369971852</v>
       </c>
       <c r="G35" t="n">
         <v>226.568019019253</v>
       </c>
       <c r="H35" t="n">
-        <v>54.23220050644183</v>
+        <v>54.23220050644184</v>
       </c>
       <c r="I35" t="n">
-        <v>54.23220050644183</v>
+        <v>54.23220050644184</v>
       </c>
       <c r="J35" t="n">
-        <v>170.6033384771847</v>
+        <v>170.6033384771849</v>
       </c>
       <c r="K35" t="n">
         <v>477.2467260668677</v>
       </c>
       <c r="L35" t="n">
-        <v>907.634970534158</v>
+        <v>907.6349705341581</v>
       </c>
       <c r="M35" t="n">
         <v>1392.674477801552</v>
@@ -6965,22 +6965,22 @@
         <v>2691.558953326554</v>
       </c>
       <c r="T35" t="n">
-        <v>2624.557608892595</v>
+        <v>2624.557608892596</v>
       </c>
       <c r="U35" t="n">
-        <v>2524.737492808585</v>
+        <v>2524.737492808586</v>
       </c>
       <c r="V35" t="n">
-        <v>2342.780765135575</v>
+        <v>2342.780765135576</v>
       </c>
       <c r="W35" t="n">
-        <v>2135.268381424224</v>
+        <v>2135.268381424225</v>
       </c>
       <c r="X35" t="n">
-        <v>1908.260787376766</v>
+        <v>1908.260787376767</v>
       </c>
       <c r="Y35" t="n">
-        <v>1669.741478383652</v>
+        <v>1669.741478383653</v>
       </c>
     </row>
     <row r="36">
@@ -7008,31 +7008,31 @@
         <v>209.9694434516677</v>
       </c>
       <c r="H36" t="n">
-        <v>112.7880071483129</v>
+        <v>112.788007148313</v>
       </c>
       <c r="I36" t="n">
-        <v>54.23220050644183</v>
+        <v>54.23220050644184</v>
       </c>
       <c r="J36" t="n">
-        <v>140.9143598633406</v>
+        <v>54.23220050644184</v>
       </c>
       <c r="K36" t="n">
-        <v>415.574595731341</v>
+        <v>155.0679767176532</v>
       </c>
       <c r="L36" t="n">
-        <v>842.1326543939526</v>
+        <v>581.6260353802647</v>
       </c>
       <c r="M36" t="n">
-        <v>1398.042304307805</v>
+        <v>1137.535685294117</v>
       </c>
       <c r="N36" t="n">
-        <v>1982.060131501354</v>
+        <v>1721.553512487666</v>
       </c>
       <c r="O36" t="n">
-        <v>2342.34043085258</v>
+        <v>2180.307495658999</v>
       </c>
       <c r="P36" t="n">
-        <v>2342.34043085258</v>
+        <v>2535.818893432551</v>
       </c>
       <c r="Q36" t="n">
         <v>2535.818893432551</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>84.7062792419967</v>
+        <v>110.1340039267431</v>
       </c>
       <c r="C37" t="n">
-        <v>70.11285613472552</v>
+        <v>95.54058081947196</v>
       </c>
       <c r="D37" t="n">
-        <v>70.11285613472552</v>
+        <v>95.54058081947196</v>
       </c>
       <c r="E37" t="n">
-        <v>70.11285613472552</v>
+        <v>95.54058081947196</v>
       </c>
       <c r="F37" t="n">
-        <v>70.11285613472552</v>
+        <v>95.54058081947196</v>
       </c>
       <c r="G37" t="n">
-        <v>56.454928740494</v>
+        <v>81.88265342524046</v>
       </c>
       <c r="H37" t="n">
-        <v>54.23220050644183</v>
+        <v>79.65992519118834</v>
       </c>
       <c r="I37" t="n">
-        <v>54.23220050644183</v>
+        <v>79.65992519118834</v>
       </c>
       <c r="J37" t="n">
-        <v>54.23220050644183</v>
+        <v>54.23220050644184</v>
       </c>
       <c r="K37" t="n">
         <v>115.0825626544041</v>
@@ -7129,16 +7129,16 @@
         <v>518.7559692924056</v>
       </c>
       <c r="V37" t="n">
-        <v>387.6154865971304</v>
+        <v>413.0432112818767</v>
       </c>
       <c r="W37" t="n">
-        <v>256.4816315455781</v>
+        <v>281.9093562303244</v>
       </c>
       <c r="X37" t="n">
-        <v>180.2517138720024</v>
+        <v>205.6794385567487</v>
       </c>
       <c r="Y37" t="n">
-        <v>113.239101495328</v>
+        <v>138.6668261800744</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>1430.720485296682</v>
       </c>
       <c r="C38" t="n">
-        <v>1203.809273060539</v>
+        <v>1203.809273060538</v>
       </c>
       <c r="D38" t="n">
         <v>986.0078547188104</v>
@@ -7166,13 +7166,13 @@
         <v>226.568019019253</v>
       </c>
       <c r="H38" t="n">
-        <v>54.23220050644183</v>
+        <v>54.23220050644184</v>
       </c>
       <c r="I38" t="n">
-        <v>54.23220050644183</v>
+        <v>54.23220050644184</v>
       </c>
       <c r="J38" t="n">
-        <v>170.6033384771845</v>
+        <v>170.6033384771847</v>
       </c>
       <c r="K38" t="n">
         <v>477.2467260668677</v>
@@ -7190,7 +7190,7 @@
         <v>2257.38329150724</v>
       </c>
       <c r="P38" t="n">
-        <v>2560.720493293333</v>
+        <v>2560.720493293334</v>
       </c>
       <c r="Q38" t="n">
         <v>2711.610025322092</v>
@@ -7245,10 +7245,10 @@
         <v>209.9694434516677</v>
       </c>
       <c r="H39" t="n">
-        <v>112.7880071483129</v>
+        <v>112.788007148313</v>
       </c>
       <c r="I39" t="n">
-        <v>54.23220050644183</v>
+        <v>54.23220050644184</v>
       </c>
       <c r="J39" t="n">
         <v>140.9143598633406</v>
@@ -7263,7 +7263,7 @@
         <v>1398.042304307805</v>
       </c>
       <c r="N39" t="n">
-        <v>1982.060131501354</v>
+        <v>1528.075049907696</v>
       </c>
       <c r="O39" t="n">
         <v>1986.829033079028</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>84.7062792419967</v>
+        <v>110.1340039267427</v>
       </c>
       <c r="C40" t="n">
-        <v>70.11285613472552</v>
+        <v>95.5405808194715</v>
       </c>
       <c r="D40" t="n">
-        <v>70.11285613472552</v>
+        <v>95.5405808194715</v>
       </c>
       <c r="E40" t="n">
-        <v>70.11285613472552</v>
+        <v>95.5405808194715</v>
       </c>
       <c r="F40" t="n">
-        <v>70.11285613472552</v>
+        <v>95.5405808194715</v>
       </c>
       <c r="G40" t="n">
-        <v>56.454928740494</v>
+        <v>81.88265342523995</v>
       </c>
       <c r="H40" t="n">
-        <v>54.23220050644183</v>
+        <v>79.65992519118777</v>
       </c>
       <c r="I40" t="n">
-        <v>54.23220050644183</v>
+        <v>79.65992519118777</v>
       </c>
       <c r="J40" t="n">
-        <v>54.23220050644183</v>
+        <v>54.23220050644184</v>
       </c>
       <c r="K40" t="n">
         <v>115.0825626544041</v>
@@ -7357,25 +7357,25 @@
         <v>782.5619706286139</v>
       </c>
       <c r="S40" t="n">
-        <v>702.6169370946918</v>
+        <v>728.044661779438</v>
       </c>
       <c r="T40" t="n">
-        <v>625.4828863344089</v>
+        <v>650.9106110191551</v>
       </c>
       <c r="U40" t="n">
-        <v>493.3282446076593</v>
+        <v>518.7559692924054</v>
       </c>
       <c r="V40" t="n">
-        <v>387.6154865971304</v>
+        <v>413.0432112818766</v>
       </c>
       <c r="W40" t="n">
-        <v>256.4816315455781</v>
+        <v>281.9093562303242</v>
       </c>
       <c r="X40" t="n">
-        <v>180.2517138720024</v>
+        <v>205.6794385567484</v>
       </c>
       <c r="Y40" t="n">
-        <v>113.239101495328</v>
+        <v>138.666826180074</v>
       </c>
     </row>
     <row r="41">
@@ -7436,10 +7436,10 @@
         <v>2711.610025322092</v>
       </c>
       <c r="S41" t="n">
-        <v>2691.558953326554</v>
+        <v>2691.558953326555</v>
       </c>
       <c r="T41" t="n">
-        <v>2624.557608892596</v>
+        <v>2624.557608892597</v>
       </c>
       <c r="U41" t="n">
         <v>2524.737492808586</v>
@@ -7500,13 +7500,13 @@
         <v>1398.042304307805</v>
       </c>
       <c r="N42" t="n">
-        <v>1982.060131501354</v>
+        <v>1528.075049907696</v>
       </c>
       <c r="O42" t="n">
-        <v>2440.814114672687</v>
+        <v>1986.829033079028</v>
       </c>
       <c r="P42" t="n">
-        <v>2535.818893432551</v>
+        <v>2342.34043085258</v>
       </c>
       <c r="Q42" t="n">
         <v>2535.818893432551</v>
@@ -7631,13 +7631,13 @@
         <v>986.00785471881</v>
       </c>
       <c r="E44" t="n">
-        <v>746.2446812559654</v>
+        <v>746.2446812559656</v>
       </c>
       <c r="F44" t="n">
-        <v>487.1160369971844</v>
+        <v>487.1160369971847</v>
       </c>
       <c r="G44" t="n">
-        <v>226.5680190192531</v>
+        <v>226.568019019253</v>
       </c>
       <c r="H44" t="n">
         <v>54.23220050644184</v>
@@ -7646,7 +7646,7 @@
         <v>54.23220050644184</v>
       </c>
       <c r="J44" t="n">
-        <v>170.6033384771847</v>
+        <v>170.6033384771849</v>
       </c>
       <c r="K44" t="n">
         <v>477.2467260668677</v>
@@ -7728,22 +7728,22 @@
         <v>140.9143598633406</v>
       </c>
       <c r="K45" t="n">
-        <v>415.574595731341</v>
+        <v>155.0679767176532</v>
       </c>
       <c r="L45" t="n">
-        <v>842.1326543939526</v>
+        <v>581.6260353802647</v>
       </c>
       <c r="M45" t="n">
-        <v>1398.042304307805</v>
+        <v>1137.535685294117</v>
       </c>
       <c r="N45" t="n">
-        <v>1528.075049907696</v>
+        <v>1721.553512487666</v>
       </c>
       <c r="O45" t="n">
-        <v>1986.829033079028</v>
+        <v>2180.307495658999</v>
       </c>
       <c r="P45" t="n">
-        <v>2342.34043085258</v>
+        <v>2535.818893432551</v>
       </c>
       <c r="Q45" t="n">
         <v>2535.818893432551</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>84.70627924199687</v>
+        <v>84.70627924199678</v>
       </c>
       <c r="C46" t="n">
-        <v>70.11285613472563</v>
+        <v>70.11285613472558</v>
       </c>
       <c r="D46" t="n">
-        <v>70.11285613472563</v>
+        <v>70.11285613472558</v>
       </c>
       <c r="E46" t="n">
-        <v>70.11285613472563</v>
+        <v>70.11285613472558</v>
       </c>
       <c r="F46" t="n">
-        <v>70.11285613472563</v>
+        <v>70.11285613472558</v>
       </c>
       <c r="G46" t="n">
-        <v>56.45492874049406</v>
+        <v>56.45492874049403</v>
       </c>
       <c r="H46" t="n">
         <v>54.23220050644184</v>
@@ -7828,28 +7828,28 @@
         <v>782.5619706286139</v>
       </c>
       <c r="R46" t="n">
-        <v>782.5619706286139</v>
+        <v>757.134245943868</v>
       </c>
       <c r="S46" t="n">
-        <v>728.044661779438</v>
+        <v>702.616937094692</v>
       </c>
       <c r="T46" t="n">
-        <v>650.9106110191551</v>
+        <v>625.4828863344092</v>
       </c>
       <c r="U46" t="n">
-        <v>493.3282446076598</v>
+        <v>493.3282446076595</v>
       </c>
       <c r="V46" t="n">
-        <v>387.6154865971308</v>
+        <v>387.6154865971306</v>
       </c>
       <c r="W46" t="n">
-        <v>256.4816315455784</v>
+        <v>256.4816315455782</v>
       </c>
       <c r="X46" t="n">
-        <v>180.2517138720027</v>
+        <v>180.2517138720025</v>
       </c>
       <c r="Y46" t="n">
-        <v>113.2391014953282</v>
+        <v>113.2391014953281</v>
       </c>
     </row>
   </sheetData>
@@ -8453,25 +8453,25 @@
         <v>157.109476210864</v>
       </c>
       <c r="K8" t="n">
-        <v>178.8230039740467</v>
+        <v>188.8326827569781</v>
       </c>
       <c r="L8" t="n">
-        <v>191.5602121631146</v>
+        <v>201.569890946046</v>
       </c>
       <c r="M8" t="n">
         <v>187.1563144971591</v>
       </c>
       <c r="N8" t="n">
-        <v>186.3981141722301</v>
+        <v>196.0033614891845</v>
       </c>
       <c r="O8" t="n">
-        <v>196.9644755630518</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P8" t="n">
-        <v>197.8864878340879</v>
+        <v>187.8768090511565</v>
       </c>
       <c r="Q8" t="n">
-        <v>190.2286203399446</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R8" t="n">
         <v>85.43134583487716</v>
@@ -8529,19 +8529,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>112.660818983621</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K9" t="n">
         <v>111.9961691666667</v>
       </c>
       <c r="L9" t="n">
-        <v>122.5851123540791</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M9" t="n">
-        <v>115.4839025616399</v>
+        <v>125.4935813445713</v>
       </c>
       <c r="N9" t="n">
-        <v>106.7151410677083</v>
+        <v>116.3203883846627</v>
       </c>
       <c r="O9" t="n">
         <v>125.8691273940425</v>
@@ -8614,16 +8614,16 @@
         <v>114.8329510464913</v>
       </c>
       <c r="L10" t="n">
-        <v>119.1990467954604</v>
+        <v>119.6034782614375</v>
       </c>
       <c r="M10" t="n">
         <v>122.8868782403605</v>
       </c>
       <c r="N10" t="n">
-        <v>103.744504878002</v>
+        <v>113.3497521949563</v>
       </c>
       <c r="O10" t="n">
-        <v>122.5056162750536</v>
+        <v>112.4959374921223</v>
       </c>
       <c r="P10" t="n">
         <v>111.9040032899324</v>
@@ -8690,13 +8690,13 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K11" t="n">
-        <v>421.3890363425141</v>
+        <v>396.2359051700067</v>
       </c>
       <c r="L11" t="n">
         <v>542.9595789155856</v>
       </c>
       <c r="M11" t="n">
-        <v>406.8007936522572</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N11" t="n">
         <v>568.5510017355793</v>
@@ -8708,7 +8708,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q11" t="n">
-        <v>276.0094878578761</v>
+        <v>123.5958191419585</v>
       </c>
       <c r="R11" t="n">
         <v>85.43134583487716</v>
@@ -8766,7 +8766,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>163.9183459425315</v>
+        <v>76.3606092183913</v>
       </c>
       <c r="K12" t="n">
         <v>66.37022643150327</v>
@@ -8784,10 +8784,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P12" t="n">
-        <v>232.8653914282237</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>273.1004740566038</v>
+        <v>179.5220029770496</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -8927,10 +8927,10 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K14" t="n">
-        <v>421.3890363425141</v>
+        <v>243.8222364540891</v>
       </c>
       <c r="L14" t="n">
-        <v>365.3927790271605</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M14" t="n">
         <v>584.3675935406823</v>
@@ -9015,7 +9015,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N15" t="n">
-        <v>252.1320338822156</v>
+        <v>447.5648243670345</v>
       </c>
       <c r="O15" t="n">
         <v>512.0210150597484</v>
@@ -9024,7 +9024,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>273.1004740566038</v>
+        <v>77.66768357178508</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9161,13 +9161,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>219.8255997236959</v>
+        <v>102.2789957128445</v>
       </c>
       <c r="K17" t="n">
         <v>421.3890363425141</v>
       </c>
       <c r="L17" t="n">
-        <v>365.39277902716</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M17" t="n">
         <v>584.3675935406823</v>
@@ -9182,7 +9182,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q17" t="n">
-        <v>276.0094878578761</v>
+        <v>215.9892919803024</v>
       </c>
       <c r="R17" t="n">
         <v>85.43134583487716</v>
@@ -9252,7 +9252,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
-        <v>164.5742971580753</v>
+        <v>360.0070876428942</v>
       </c>
       <c r="O18" t="n">
         <v>512.0210150597484</v>
@@ -9261,7 +9261,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>273.1004740566038</v>
+        <v>77.66768357178508</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9407,7 +9407,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M20" t="n">
-        <v>406.8007936522567</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N20" t="n">
         <v>568.5510017355793</v>
@@ -9416,7 +9416,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P20" t="n">
-        <v>418.3383206229274</v>
+        <v>240.7715207345024</v>
       </c>
       <c r="Q20" t="n">
         <v>276.0094878578761</v>
@@ -9477,7 +9477,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>76.3606092183913</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
         <v>343.8048081163522</v>
@@ -9489,7 +9489,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N21" t="n">
-        <v>447.5648243670345</v>
+        <v>360.0070876428947</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
@@ -9717,7 +9717,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K24" t="n">
-        <v>343.8048081163522</v>
+        <v>80.66680911262704</v>
       </c>
       <c r="L24" t="n">
         <v>482.0924488944969</v>
@@ -9729,13 +9729,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O24" t="n">
-        <v>412.5526475646913</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P24" t="n">
-        <v>54.89917723843171</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>273.1004740566038</v>
+        <v>77.66768357178508</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9951,7 +9951,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>163.9183459425315</v>
+        <v>76.36060921839129</v>
       </c>
       <c r="K27" t="n">
         <v>343.8048081163522</v>
@@ -9963,7 +9963,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>164.574297158075</v>
+        <v>447.564824367034</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
@@ -9972,7 +9972,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
-        <v>273.1004740566038</v>
+        <v>77.66768357178506</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10188,7 +10188,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>163.9183459425315</v>
+        <v>76.3606092183913</v>
       </c>
       <c r="K30" t="n">
         <v>343.8048081163522</v>
@@ -10197,10 +10197,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M30" t="n">
-        <v>146.8457933864557</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>623.1450866466196</v>
+        <v>252.1320338822156</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
@@ -10425,13 +10425,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>163.9183459425315</v>
+        <v>76.3606092183913</v>
       </c>
       <c r="K33" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L33" t="n">
-        <v>482.0924488944969</v>
+        <v>111.0793961300928</v>
       </c>
       <c r="M33" t="n">
         <v>605.4165828749999</v>
@@ -10440,7 +10440,7 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O33" t="n">
-        <v>53.4502255712041</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P33" t="n">
         <v>414.0015992319183</v>
@@ -10604,7 +10604,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q35" t="n">
-        <v>276.0094878578756</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R35" t="n">
         <v>85.43134583487716</v>
@@ -10662,10 +10662,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>163.9183459425315</v>
+        <v>76.3606092183913</v>
       </c>
       <c r="K36" t="n">
-        <v>343.8048081163522</v>
+        <v>168.2245458367672</v>
       </c>
       <c r="L36" t="n">
         <v>482.0924488944969</v>
@@ -10677,13 +10677,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O36" t="n">
-        <v>412.5526475646913</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P36" t="n">
-        <v>54.89917723843171</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
-        <v>273.1004740566038</v>
+        <v>77.66768357178508</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10911,10 +10911,10 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>623.1450866466196</v>
+        <v>164.5742971580756</v>
       </c>
       <c r="O39" t="n">
-        <v>53.45022557120456</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P39" t="n">
         <v>414.0015992319183</v>
@@ -11148,16 +11148,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>623.1450866466196</v>
+        <v>164.5742971580756</v>
       </c>
       <c r="O42" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P42" t="n">
-        <v>150.8636002281935</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
-        <v>77.66768357178508</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11376,7 +11376,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K45" t="n">
-        <v>343.8048081163522</v>
+        <v>80.66680911262704</v>
       </c>
       <c r="L45" t="n">
         <v>482.0924488944969</v>
@@ -11385,7 +11385,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
-        <v>164.5742971580756</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O45" t="n">
         <v>512.0210150597484</v>
@@ -11394,7 +11394,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
-        <v>273.1004740566038</v>
+        <v>77.66768357178508</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -23255,16 +23255,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>293.6396894554686</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>223.4169310479295</v>
+        <v>272.6323104576783</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>294.3744480275838</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>227.6213666270507</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,19 +23309,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>41.14066565539398</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>155.8308212225384</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>262.4461661736046</v>
       </c>
       <c r="X11" t="n">
-        <v>281.7464244063513</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,10 +23416,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>71.45639517556613</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>55.07775957314452</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>22.532732325605</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>149.0668870743172</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,16 +23492,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>293.6396894554685</v>
       </c>
       <c r="C14" t="n">
-        <v>177.671228645185</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>272.6323104576782</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>294.3744480275838</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>32.76131027883558</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>155.8308212225384</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>262.4461661736045</v>
       </c>
       <c r="X14" t="n">
         <v>281.7464244063511</v>
@@ -23665,7 +23665,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>70.53025441965681</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>78.53663265465789</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>149.0668870743148</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>174.0332205706454</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>174.0332205706454</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>174.0332205706464</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -24023,13 +24023,13 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>98.82191492317077</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>75.21130564747341</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>988917.8789894298</v>
+        <v>988917.8789894299</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>988917.8789894298</v>
+        <v>988917.8789894301</v>
       </c>
     </row>
     <row r="9">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>478672.8946920651</v>
+        <v>478672.8946920652</v>
       </c>
       <c r="C2" t="n">
         <v>478672.8946920651</v>
@@ -26323,34 +26323,34 @@
         <v>426464.4200287938</v>
       </c>
       <c r="F2" t="n">
-        <v>426464.420028794</v>
+        <v>426464.4200287941</v>
       </c>
       <c r="G2" t="n">
-        <v>471106.8850854747</v>
+        <v>471106.8850854748</v>
       </c>
       <c r="H2" t="n">
-        <v>471106.8850854746</v>
+        <v>471106.8850854748</v>
       </c>
       <c r="I2" t="n">
-        <v>479765.0378088634</v>
+        <v>479765.0378088636</v>
       </c>
       <c r="J2" t="n">
-        <v>479765.0378088634</v>
+        <v>479765.0378088635</v>
       </c>
       <c r="K2" t="n">
-        <v>479765.0378088632</v>
+        <v>479765.0378088633</v>
       </c>
       <c r="L2" t="n">
-        <v>479765.0378088639</v>
+        <v>479765.0378088641</v>
       </c>
       <c r="M2" t="n">
-        <v>479765.0378088641</v>
+        <v>479765.0378088636</v>
       </c>
       <c r="N2" t="n">
         <v>479765.0378088635</v>
       </c>
       <c r="O2" t="n">
-        <v>479765.0378088637</v>
+        <v>479765.0378088643</v>
       </c>
       <c r="P2" t="n">
         <v>479765.0378088635</v>
@@ -26375,25 +26375,25 @@
         <v>368735.7221940461</v>
       </c>
       <c r="F3" t="n">
-        <v>7.71771218361599e-11</v>
+        <v>5.145141455743993e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>45607.12503949413</v>
+        <v>45607.12503949407</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>11925.14122020373</v>
+        <v>11925.14122020376</v>
       </c>
       <c r="J3" t="n">
-        <v>87710.73798756694</v>
+        <v>87710.73798756697</v>
       </c>
       <c r="K3" t="n">
-        <v>7.71771218361599e-11</v>
+        <v>5.145141455743993e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>47678.88831527017</v>
+        <v>47678.88831527009</v>
       </c>
       <c r="M3" t="n">
         <v>147580.4921053314</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>36565.68337217523</v>
+        <v>36565.68337217532</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,7 +26424,7 @@
         <v>392094.6976652482</v>
       </c>
       <c r="E4" t="n">
-        <v>241458.8489904206</v>
+        <v>241458.8489904207</v>
       </c>
       <c r="F4" t="n">
         <v>241458.8489904207</v>
@@ -26433,7 +26433,7 @@
         <v>282008.2524914542</v>
       </c>
       <c r="H4" t="n">
-        <v>282008.2524914542</v>
+        <v>282008.2524914543</v>
       </c>
       <c r="I4" t="n">
         <v>286623.1070804745</v>
@@ -26488,28 +26488,28 @@
         <v>54255.86934848135</v>
       </c>
       <c r="I5" t="n">
-        <v>56982.42567982933</v>
+        <v>56982.42567982934</v>
       </c>
       <c r="J5" t="n">
-        <v>64600.31843139362</v>
+        <v>64600.31843139363</v>
       </c>
       <c r="K5" t="n">
-        <v>64600.31843139362</v>
+        <v>64600.31843139363</v>
       </c>
       <c r="L5" t="n">
         <v>64209.44379493041</v>
       </c>
       <c r="M5" t="n">
-        <v>56982.42567982932</v>
+        <v>56982.42567982934</v>
       </c>
       <c r="N5" t="n">
-        <v>56982.42567982932</v>
+        <v>56982.42567982933</v>
       </c>
       <c r="O5" t="n">
         <v>56982.42567982934</v>
       </c>
       <c r="P5" t="n">
-        <v>56982.42567982932</v>
+        <v>56982.42567982933</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>52512.38629894073</v>
+        <v>52508.01772647365</v>
       </c>
       <c r="C6" t="n">
-        <v>52512.38629894079</v>
+        <v>52508.01772647359</v>
       </c>
       <c r="D6" t="n">
-        <v>50228.66507537445</v>
+        <v>50228.28035506287</v>
       </c>
       <c r="E6" t="n">
-        <v>-233193.3387604727</v>
+        <v>-233406.5412315931</v>
       </c>
       <c r="F6" t="n">
-        <v>135542.3834335735</v>
+        <v>135329.1809624533</v>
       </c>
       <c r="G6" t="n">
-        <v>89235.63820604497</v>
+        <v>89201.00559515152</v>
       </c>
       <c r="H6" t="n">
-        <v>134842.763245539</v>
+        <v>134808.1306346456</v>
       </c>
       <c r="I6" t="n">
-        <v>124234.3638283559</v>
+        <v>124234.363828356</v>
       </c>
       <c r="J6" t="n">
-        <v>39803.91481549057</v>
+        <v>39803.91481549062</v>
       </c>
       <c r="K6" t="n">
         <v>127514.6528030573</v>
       </c>
       <c r="L6" t="n">
-        <v>80280.25200191559</v>
+        <v>80280.25200191594</v>
       </c>
       <c r="M6" t="n">
-        <v>-11420.98705677112</v>
+        <v>-11420.98705677172</v>
       </c>
       <c r="N6" t="n">
         <v>136159.5050485597</v>
       </c>
       <c r="O6" t="n">
-        <v>99593.82167638464</v>
+        <v>99593.82167638517</v>
       </c>
       <c r="P6" t="n">
         <v>136159.5050485597</v>
@@ -26692,31 +26692,31 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>96.46341466737033</v>
+        <v>96.46341466737037</v>
       </c>
       <c r="F2" t="n">
-        <v>96.46341466737043</v>
+        <v>96.46341466737044</v>
       </c>
       <c r="G2" t="n">
-        <v>153.4723209667381</v>
+        <v>153.472320966738</v>
       </c>
       <c r="H2" t="n">
-        <v>153.4723209667381</v>
+        <v>153.472320966738</v>
       </c>
       <c r="I2" t="n">
-        <v>153.4723209667381</v>
+        <v>153.472320966738</v>
       </c>
       <c r="J2" t="n">
         <v>102.7160105145868</v>
       </c>
       <c r="K2" t="n">
-        <v>102.7160105145868</v>
+        <v>102.7160105145867</v>
       </c>
       <c r="L2" t="n">
         <v>105.3057146093068</v>
       </c>
       <c r="M2" t="n">
-        <v>153.472320966738</v>
+        <v>153.4723209667381</v>
       </c>
       <c r="N2" t="n">
         <v>153.472320966738</v>
@@ -26802,28 +26802,28 @@
         <v>633.0578298280891</v>
       </c>
       <c r="G4" t="n">
-        <v>633.057829828089</v>
+        <v>633.0578298280891</v>
       </c>
       <c r="H4" t="n">
-        <v>633.057829828089</v>
+        <v>633.0578298280891</v>
       </c>
       <c r="I4" t="n">
-        <v>677.9025063305229</v>
+        <v>677.9025063305231</v>
       </c>
       <c r="J4" t="n">
-        <v>873.3782467082565</v>
+        <v>873.3782467082566</v>
       </c>
       <c r="K4" t="n">
-        <v>873.3782467082565</v>
+        <v>873.3782467082566</v>
       </c>
       <c r="L4" t="n">
-        <v>863.3685679253251</v>
+        <v>863.3685679253252</v>
       </c>
       <c r="M4" t="n">
-        <v>677.9025063305229</v>
+        <v>677.902506330523</v>
       </c>
       <c r="N4" t="n">
-        <v>677.9025063305229</v>
+        <v>677.902506330523</v>
       </c>
       <c r="O4" t="n">
         <v>677.902506330523</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>96.46341466737033</v>
+        <v>96.46341466737037</v>
       </c>
       <c r="F2" t="n">
-        <v>9.647140229519987e-14</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>57.00890629936767</v>
+        <v>57.0089062993676</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>45.707104215219</v>
+        <v>45.70710421521909</v>
       </c>
       <c r="K2" t="n">
-        <v>9.647140229519987e-14</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>59.59861039408771</v>
+        <v>59.59861039408761</v>
       </c>
       <c r="M2" t="n">
-        <v>48.16660635743123</v>
+        <v>48.16660635743131</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>45.70710421521903</v>
+        <v>45.70710421521915</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>44.84467650243391</v>
+        <v>44.84467650243403</v>
       </c>
       <c r="J4" t="n">
-        <v>195.4757403777336</v>
+        <v>195.4757403777335</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>96.46341466737033</v>
+        <v>96.46341466737037</v>
       </c>
       <c r="K2" t="n">
-        <v>9.647140229519987e-14</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>57.00890629936767</v>
+        <v>57.0089062993676</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>45.707104215219</v>
+        <v>45.70710421521909</v>
       </c>
       <c r="P2" t="n">
-        <v>9.647140229519987e-14</v>
+        <v>6.431426819679991e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>380.0934253399076</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
         <v>378.1144210805207</v>
@@ -27871,7 +27871,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
-        <v>171.0890268032919</v>
+        <v>162.272501731286</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>89.73190363910518</v>
+        <v>79.72222485617382</v>
       </c>
       <c r="S8" t="n">
         <v>185.3566856159496</v>
@@ -27919,7 +27919,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
-        <v>380.7899117979144</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="9">
@@ -27929,10 +27929,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>147.8155695705169</v>
+        <v>149.0087232814423</v>
       </c>
       <c r="C9" t="n">
-        <v>150.0769572485235</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D9" t="n">
         <v>137.45025063969</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>49.17674743307231</v>
       </c>
       <c r="S9" t="n">
         <v>151.2714921173871</v>
@@ -27989,7 +27989,7 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V9" t="n">
-        <v>217.2951412541434</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W9" t="n">
         <v>238.9027100790231</v>
@@ -27998,7 +27998,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y9" t="n">
-        <v>190.5961130869169</v>
+        <v>180.5864343039856</v>
       </c>
     </row>
     <row r="10">
@@ -28020,10 +28020,10 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F10" t="n">
-        <v>140.9461696415493</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
-        <v>157.2208723628971</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H10" t="n">
         <v>157.7789187685189</v>
@@ -28032,7 +28032,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
-        <v>50.64014112796306</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>28.14228914991649</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
         <v>148.0265635717656</v>
@@ -28068,16 +28068,16 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V10" t="n">
-        <v>258.1279513971616</v>
+        <v>249.3114263251557</v>
       </c>
       <c r="W10" t="n">
-        <v>283.2948374677749</v>
+        <v>273.2851586848435</v>
       </c>
       <c r="X10" t="n">
-        <v>228.939939463578</v>
+        <v>218.9302606806466</v>
       </c>
       <c r="Y10" t="n">
-        <v>219.8148072196457</v>
+        <v>209.8051284367143</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>96.46341466737033</v>
+        <v>96.46341466737037</v>
       </c>
       <c r="C11" t="n">
-        <v>96.46341466737033</v>
+        <v>96.46341466737037</v>
       </c>
       <c r="D11" t="n">
-        <v>96.46341466737033</v>
+        <v>96.46341466737037</v>
       </c>
       <c r="E11" t="n">
-        <v>96.46341466737033</v>
+        <v>96.46341466737037</v>
       </c>
       <c r="F11" t="n">
-        <v>96.46341466737033</v>
+        <v>96.46341466737037</v>
       </c>
       <c r="G11" t="n">
-        <v>96.46341466737033</v>
+        <v>96.46341466737037</v>
       </c>
       <c r="H11" t="n">
-        <v>96.46341466737033</v>
+        <v>96.46341466737037</v>
       </c>
       <c r="I11" t="n">
-        <v>96.46341466737033</v>
+        <v>96.46341466737037</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>56.55940111935789</v>
       </c>
       <c r="S11" t="n">
-        <v>96.46341466737033</v>
+        <v>96.46341466737037</v>
       </c>
       <c r="T11" t="n">
-        <v>96.46341466737033</v>
+        <v>96.46341466737037</v>
       </c>
       <c r="U11" t="n">
-        <v>96.46341466737033</v>
+        <v>96.46341466737037</v>
       </c>
       <c r="V11" t="n">
-        <v>96.46341466737033</v>
+        <v>96.46341466737037</v>
       </c>
       <c r="W11" t="n">
-        <v>96.46341466737033</v>
+        <v>96.46341466737037</v>
       </c>
       <c r="X11" t="n">
-        <v>96.46341466737033</v>
+        <v>96.46341466737037</v>
       </c>
       <c r="Y11" t="n">
-        <v>96.46341466737033</v>
+        <v>96.46341466737037</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>96.46341466737033</v>
+        <v>96.46341466737037</v>
       </c>
       <c r="C13" t="n">
-        <v>96.46341466737033</v>
+        <v>96.46341466737037</v>
       </c>
       <c r="D13" t="n">
-        <v>96.46341466737033</v>
+        <v>96.46341466737037</v>
       </c>
       <c r="E13" t="n">
-        <v>96.46341466737033</v>
+        <v>96.46341466737037</v>
       </c>
       <c r="F13" t="n">
-        <v>96.46341466737033</v>
+        <v>96.46341466737037</v>
       </c>
       <c r="G13" t="n">
-        <v>96.46341466737033</v>
+        <v>96.46341466737037</v>
       </c>
       <c r="H13" t="n">
-        <v>96.46341466737033</v>
+        <v>96.46341466737037</v>
       </c>
       <c r="I13" t="n">
-        <v>96.46341466737033</v>
+        <v>96.46341466737037</v>
       </c>
       <c r="J13" t="n">
-        <v>96.46341466737033</v>
+        <v>96.46341466737037</v>
       </c>
       <c r="K13" t="n">
-        <v>96.46341466737033</v>
+        <v>96.46341466737037</v>
       </c>
       <c r="L13" t="n">
-        <v>96.46341466737033</v>
+        <v>96.46341466737037</v>
       </c>
       <c r="M13" t="n">
-        <v>96.46341466737033</v>
+        <v>96.46341466737037</v>
       </c>
       <c r="N13" t="n">
-        <v>96.46341466737033</v>
+        <v>96.46341466737037</v>
       </c>
       <c r="O13" t="n">
-        <v>96.46341466737033</v>
+        <v>96.46341466737037</v>
       </c>
       <c r="P13" t="n">
-        <v>96.46341466737033</v>
+        <v>96.46341466737037</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.46341466737033</v>
+        <v>96.46341466737037</v>
       </c>
       <c r="R13" t="n">
-        <v>96.46341466737033</v>
+        <v>96.46341466737037</v>
       </c>
       <c r="S13" t="n">
-        <v>96.46341466737033</v>
+        <v>96.46341466737037</v>
       </c>
       <c r="T13" t="n">
-        <v>96.46341466737033</v>
+        <v>96.46341466737037</v>
       </c>
       <c r="U13" t="n">
-        <v>96.46341466737033</v>
+        <v>96.46341466737037</v>
       </c>
       <c r="V13" t="n">
-        <v>96.46341466737033</v>
+        <v>96.46341466737037</v>
       </c>
       <c r="W13" t="n">
-        <v>96.46341466737033</v>
+        <v>96.46341466737037</v>
       </c>
       <c r="X13" t="n">
-        <v>96.46341466737033</v>
+        <v>96.46341466737037</v>
       </c>
       <c r="Y13" t="n">
-        <v>96.46341466737033</v>
+        <v>96.46341466737037</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>96.46341466737043</v>
+        <v>96.46341466737044</v>
       </c>
       <c r="C14" t="n">
-        <v>96.46341466737043</v>
+        <v>96.46341466737044</v>
       </c>
       <c r="D14" t="n">
-        <v>96.46341466737043</v>
+        <v>96.46341466737044</v>
       </c>
       <c r="E14" t="n">
-        <v>96.46341466737043</v>
+        <v>96.46341466737044</v>
       </c>
       <c r="F14" t="n">
-        <v>96.46341466737043</v>
+        <v>96.46341466737044</v>
       </c>
       <c r="G14" t="n">
-        <v>96.46341466737043</v>
+        <v>96.46341466737044</v>
       </c>
       <c r="H14" t="n">
-        <v>96.46341466737043</v>
+        <v>96.46341466737044</v>
       </c>
       <c r="I14" t="n">
-        <v>96.46341466737043</v>
+        <v>96.46341466737044</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>56.55940111935789</v>
       </c>
       <c r="S14" t="n">
-        <v>96.46341466737043</v>
+        <v>96.46341466737044</v>
       </c>
       <c r="T14" t="n">
-        <v>96.46341466737043</v>
+        <v>96.46341466737044</v>
       </c>
       <c r="U14" t="n">
-        <v>96.46341466737043</v>
+        <v>96.46341466737044</v>
       </c>
       <c r="V14" t="n">
-        <v>96.46341466737043</v>
+        <v>96.46341466737044</v>
       </c>
       <c r="W14" t="n">
-        <v>96.46341466737043</v>
+        <v>96.46341466737044</v>
       </c>
       <c r="X14" t="n">
-        <v>96.46341466737043</v>
+        <v>96.46341466737044</v>
       </c>
       <c r="Y14" t="n">
-        <v>96.46341466737043</v>
+        <v>96.46341466737044</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>96.46341466737043</v>
+        <v>96.46341466737044</v>
       </c>
       <c r="C16" t="n">
-        <v>96.46341466737043</v>
+        <v>96.46341466737044</v>
       </c>
       <c r="D16" t="n">
-        <v>96.46341466737043</v>
+        <v>96.46341466737044</v>
       </c>
       <c r="E16" t="n">
-        <v>96.46341466737043</v>
+        <v>96.46341466737044</v>
       </c>
       <c r="F16" t="n">
-        <v>96.46341466737043</v>
+        <v>96.46341466737044</v>
       </c>
       <c r="G16" t="n">
-        <v>96.46341466737043</v>
+        <v>96.46341466737044</v>
       </c>
       <c r="H16" t="n">
-        <v>96.46341466737043</v>
+        <v>96.46341466737044</v>
       </c>
       <c r="I16" t="n">
-        <v>96.46341466737043</v>
+        <v>96.46341466737044</v>
       </c>
       <c r="J16" t="n">
-        <v>96.46341466737043</v>
+        <v>96.46341466737044</v>
       </c>
       <c r="K16" t="n">
-        <v>96.46341466737043</v>
+        <v>96.46341466737044</v>
       </c>
       <c r="L16" t="n">
-        <v>96.46341466737043</v>
+        <v>96.46341466737044</v>
       </c>
       <c r="M16" t="n">
-        <v>96.46341466737043</v>
+        <v>96.46341466737044</v>
       </c>
       <c r="N16" t="n">
-        <v>96.46341466737043</v>
+        <v>96.46341466737044</v>
       </c>
       <c r="O16" t="n">
-        <v>96.46341466737043</v>
+        <v>96.46341466737044</v>
       </c>
       <c r="P16" t="n">
-        <v>96.46341466737043</v>
+        <v>96.46341466737044</v>
       </c>
       <c r="Q16" t="n">
-        <v>96.46341466737043</v>
+        <v>96.46341466737044</v>
       </c>
       <c r="R16" t="n">
-        <v>96.46341466737043</v>
+        <v>96.46341466737044</v>
       </c>
       <c r="S16" t="n">
-        <v>96.46341466737043</v>
+        <v>96.46341466737044</v>
       </c>
       <c r="T16" t="n">
-        <v>96.46341466737043</v>
+        <v>96.46341466737044</v>
       </c>
       <c r="U16" t="n">
-        <v>96.46341466737043</v>
+        <v>96.46341466737044</v>
       </c>
       <c r="V16" t="n">
-        <v>96.46341466737043</v>
+        <v>96.46341466737044</v>
       </c>
       <c r="W16" t="n">
-        <v>96.46341466737043</v>
+        <v>96.46341466737044</v>
       </c>
       <c r="X16" t="n">
-        <v>96.46341466737043</v>
+        <v>96.46341466737044</v>
       </c>
       <c r="Y16" t="n">
-        <v>96.46341466737043</v>
+        <v>96.46341466737044</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>153.4723209667381</v>
+        <v>153.472320966738</v>
       </c>
       <c r="C17" t="n">
-        <v>153.4723209667381</v>
+        <v>153.472320966738</v>
       </c>
       <c r="D17" t="n">
-        <v>153.4723209667381</v>
+        <v>153.472320966738</v>
       </c>
       <c r="E17" t="n">
-        <v>153.4723209667381</v>
+        <v>153.472320966738</v>
       </c>
       <c r="F17" t="n">
-        <v>153.4723209667381</v>
+        <v>153.472320966738</v>
       </c>
       <c r="G17" t="n">
-        <v>153.4723209667381</v>
+        <v>153.472320966738</v>
       </c>
       <c r="H17" t="n">
-        <v>153.4723209667381</v>
+        <v>153.472320966738</v>
       </c>
       <c r="I17" t="n">
         <v>150.7299174423773</v>
@@ -28612,25 +28612,25 @@
         <v>56.55940111935789</v>
       </c>
       <c r="S17" t="n">
-        <v>153.4723209667381</v>
+        <v>153.472320966738</v>
       </c>
       <c r="T17" t="n">
-        <v>153.4723209667381</v>
+        <v>153.472320966738</v>
       </c>
       <c r="U17" t="n">
-        <v>153.4723209667381</v>
+        <v>153.472320966738</v>
       </c>
       <c r="V17" t="n">
-        <v>153.4723209667381</v>
+        <v>153.472320966738</v>
       </c>
       <c r="W17" t="n">
-        <v>153.4723209667381</v>
+        <v>153.472320966738</v>
       </c>
       <c r="X17" t="n">
-        <v>153.4723209667381</v>
+        <v>153.472320966738</v>
       </c>
       <c r="Y17" t="n">
-        <v>153.4723209667381</v>
+        <v>153.472320966738</v>
       </c>
     </row>
     <row r="18">
@@ -28719,25 +28719,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>153.4723209667381</v>
+        <v>153.472320966738</v>
       </c>
       <c r="C19" t="n">
-        <v>153.4723209667381</v>
+        <v>153.472320966738</v>
       </c>
       <c r="D19" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E19" t="n">
-        <v>125.315476658395</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F19" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>153.4723209667381</v>
+        <v>153.472320966738</v>
       </c>
       <c r="H19" t="n">
-        <v>153.4723209667381</v>
+        <v>153.472320966738</v>
       </c>
       <c r="I19" t="n">
         <v>135.6373244032164</v>
@@ -28770,25 +28770,25 @@
         <v>137.375484818757</v>
       </c>
       <c r="S19" t="n">
-        <v>153.4723209667381</v>
+        <v>128.2988735288394</v>
       </c>
       <c r="T19" t="n">
-        <v>153.4723209667381</v>
+        <v>153.472320966738</v>
       </c>
       <c r="U19" t="n">
-        <v>153.4723209667381</v>
+        <v>153.472320966738</v>
       </c>
       <c r="V19" t="n">
-        <v>153.4723209667381</v>
+        <v>153.472320966738</v>
       </c>
       <c r="W19" t="n">
-        <v>153.4723209667381</v>
+        <v>153.472320966738</v>
       </c>
       <c r="X19" t="n">
-        <v>153.4723209667381</v>
+        <v>153.472320966738</v>
       </c>
       <c r="Y19" t="n">
-        <v>153.4723209667381</v>
+        <v>153.472320966738</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>153.4723209667381</v>
+        <v>153.472320966738</v>
       </c>
       <c r="C20" t="n">
-        <v>153.4723209667381</v>
+        <v>153.472320966738</v>
       </c>
       <c r="D20" t="n">
-        <v>153.4723209667381</v>
+        <v>153.472320966738</v>
       </c>
       <c r="E20" t="n">
-        <v>153.4723209667381</v>
+        <v>153.472320966738</v>
       </c>
       <c r="F20" t="n">
-        <v>153.4723209667381</v>
+        <v>153.472320966738</v>
       </c>
       <c r="G20" t="n">
-        <v>153.4723209667381</v>
+        <v>153.472320966738</v>
       </c>
       <c r="H20" t="n">
-        <v>153.4723209667381</v>
+        <v>153.472320966738</v>
       </c>
       <c r="I20" t="n">
         <v>150.7299174423773</v>
@@ -28849,25 +28849,25 @@
         <v>56.55940111935789</v>
       </c>
       <c r="S20" t="n">
-        <v>153.4723209667381</v>
+        <v>153.472320966738</v>
       </c>
       <c r="T20" t="n">
-        <v>153.4723209667381</v>
+        <v>153.472320966738</v>
       </c>
       <c r="U20" t="n">
-        <v>153.4723209667381</v>
+        <v>153.472320966738</v>
       </c>
       <c r="V20" t="n">
-        <v>153.4723209667381</v>
+        <v>153.472320966738</v>
       </c>
       <c r="W20" t="n">
-        <v>153.4723209667381</v>
+        <v>153.472320966738</v>
       </c>
       <c r="X20" t="n">
-        <v>153.4723209667381</v>
+        <v>153.472320966738</v>
       </c>
       <c r="Y20" t="n">
-        <v>153.4723209667381</v>
+        <v>153.472320966738</v>
       </c>
     </row>
     <row r="21">
@@ -28956,10 +28956,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>153.4723209667381</v>
+        <v>153.472320966738</v>
       </c>
       <c r="C22" t="n">
-        <v>153.4723209667381</v>
+        <v>128.2988735288394</v>
       </c>
       <c r="D22" t="n">
         <v>151.5411742405149</v>
@@ -28971,10 +28971,10 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>153.4723209667381</v>
+        <v>153.472320966738</v>
       </c>
       <c r="H22" t="n">
-        <v>153.4723209667381</v>
+        <v>153.472320966738</v>
       </c>
       <c r="I22" t="n">
         <v>135.6373244032164</v>
@@ -29007,25 +29007,25 @@
         <v>137.375484818757</v>
       </c>
       <c r="S22" t="n">
-        <v>153.4723209667381</v>
+        <v>153.472320966738</v>
       </c>
       <c r="T22" t="n">
-        <v>153.4723209667381</v>
+        <v>153.472320966738</v>
       </c>
       <c r="U22" t="n">
-        <v>153.4723209667381</v>
+        <v>153.472320966738</v>
       </c>
       <c r="V22" t="n">
-        <v>153.4723209667381</v>
+        <v>153.472320966738</v>
       </c>
       <c r="W22" t="n">
-        <v>153.4723209667381</v>
+        <v>153.472320966738</v>
       </c>
       <c r="X22" t="n">
-        <v>153.4723209667381</v>
+        <v>153.472320966738</v>
       </c>
       <c r="Y22" t="n">
-        <v>128.2988735288387</v>
+        <v>153.472320966738</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>153.4723209667381</v>
+        <v>153.472320966738</v>
       </c>
       <c r="C23" t="n">
-        <v>153.4723209667381</v>
+        <v>153.472320966738</v>
       </c>
       <c r="D23" t="n">
-        <v>153.4723209667381</v>
+        <v>153.472320966738</v>
       </c>
       <c r="E23" t="n">
-        <v>153.4723209667381</v>
+        <v>153.472320966738</v>
       </c>
       <c r="F23" t="n">
-        <v>153.4723209667381</v>
+        <v>153.472320966738</v>
       </c>
       <c r="G23" t="n">
-        <v>153.4723209667381</v>
+        <v>153.472320966738</v>
       </c>
       <c r="H23" t="n">
-        <v>153.4723209667381</v>
+        <v>153.472320966738</v>
       </c>
       <c r="I23" t="n">
         <v>150.7299174423773</v>
@@ -29086,25 +29086,25 @@
         <v>56.55940111935789</v>
       </c>
       <c r="S23" t="n">
-        <v>153.4723209667381</v>
+        <v>153.472320966738</v>
       </c>
       <c r="T23" t="n">
-        <v>153.4723209667381</v>
+        <v>153.472320966738</v>
       </c>
       <c r="U23" t="n">
-        <v>153.4723209667381</v>
+        <v>153.472320966738</v>
       </c>
       <c r="V23" t="n">
-        <v>153.4723209667381</v>
+        <v>153.472320966738</v>
       </c>
       <c r="W23" t="n">
-        <v>153.4723209667381</v>
+        <v>153.472320966738</v>
       </c>
       <c r="X23" t="n">
-        <v>153.4723209667381</v>
+        <v>153.472320966738</v>
       </c>
       <c r="Y23" t="n">
-        <v>153.4723209667381</v>
+        <v>153.472320966738</v>
       </c>
     </row>
     <row r="24">
@@ -29193,10 +29193,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>153.4723209667381</v>
+        <v>153.472320966738</v>
       </c>
       <c r="C25" t="n">
-        <v>153.4723209667381</v>
+        <v>153.472320966738</v>
       </c>
       <c r="D25" t="n">
         <v>151.5411742405149</v>
@@ -29205,13 +29205,13 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F25" t="n">
-        <v>125.7824009865811</v>
+        <v>125.7824009865819</v>
       </c>
       <c r="G25" t="n">
-        <v>153.4723209667381</v>
+        <v>153.472320966738</v>
       </c>
       <c r="H25" t="n">
-        <v>153.4723209667381</v>
+        <v>153.472320966738</v>
       </c>
       <c r="I25" t="n">
         <v>135.6373244032164</v>
@@ -29244,25 +29244,25 @@
         <v>137.375484818757</v>
       </c>
       <c r="S25" t="n">
-        <v>153.4723209667381</v>
+        <v>153.472320966738</v>
       </c>
       <c r="T25" t="n">
-        <v>153.4723209667381</v>
+        <v>153.472320966738</v>
       </c>
       <c r="U25" t="n">
-        <v>153.4723209667381</v>
+        <v>153.472320966738</v>
       </c>
       <c r="V25" t="n">
-        <v>153.4723209667381</v>
+        <v>153.472320966738</v>
       </c>
       <c r="W25" t="n">
-        <v>153.4723209667381</v>
+        <v>153.472320966738</v>
       </c>
       <c r="X25" t="n">
-        <v>153.4723209667381</v>
+        <v>153.472320966738</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.4723209667381</v>
+        <v>153.472320966738</v>
       </c>
     </row>
     <row r="26">
@@ -29296,7 +29296,7 @@
         <v>102.7160105145868</v>
       </c>
       <c r="J26" t="n">
-        <v>8.836268801365634</v>
+        <v>102.7160105145868</v>
       </c>
       <c r="K26" t="n">
         <v>102.7160105145868</v>
@@ -29311,7 +29311,7 @@
         <v>102.7160105145868</v>
       </c>
       <c r="O26" t="n">
-        <v>102.7160105145868</v>
+        <v>8.83626880136643</v>
       </c>
       <c r="P26" t="n">
         <v>102.7160105145868</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>102.7160105145868</v>
+        <v>102.7160105145867</v>
       </c>
       <c r="C29" t="n">
-        <v>102.7160105145868</v>
+        <v>102.7160105145867</v>
       </c>
       <c r="D29" t="n">
-        <v>102.7160105145868</v>
+        <v>102.7160105145867</v>
       </c>
       <c r="E29" t="n">
-        <v>102.7160105145868</v>
+        <v>102.7160105145867</v>
       </c>
       <c r="F29" t="n">
-        <v>102.7160105145868</v>
+        <v>102.7160105145867</v>
       </c>
       <c r="G29" t="n">
-        <v>102.7160105145868</v>
+        <v>102.7160105145867</v>
       </c>
       <c r="H29" t="n">
-        <v>102.7160105145868</v>
+        <v>102.7160105145867</v>
       </c>
       <c r="I29" t="n">
-        <v>102.7160105145868</v>
+        <v>102.7160105145867</v>
       </c>
       <c r="J29" t="n">
-        <v>102.7160105145868</v>
+        <v>102.7160105145867</v>
       </c>
       <c r="K29" t="n">
-        <v>102.7160105145868</v>
+        <v>102.7160105145867</v>
       </c>
       <c r="L29" t="n">
-        <v>102.7160105145868</v>
+        <v>102.7160105145867</v>
       </c>
       <c r="M29" t="n">
-        <v>102.7160105145868</v>
+        <v>102.7160105145867</v>
       </c>
       <c r="N29" t="n">
-        <v>102.7160105145868</v>
+        <v>8.8362688013666</v>
       </c>
       <c r="O29" t="n">
-        <v>102.7160105145868</v>
+        <v>102.7160105145867</v>
       </c>
       <c r="P29" t="n">
-        <v>8.836268801366373</v>
+        <v>102.7160105145867</v>
       </c>
       <c r="Q29" t="n">
-        <v>102.7160105145868</v>
+        <v>102.7160105145867</v>
       </c>
       <c r="R29" t="n">
-        <v>102.7160105145868</v>
+        <v>102.7160105145867</v>
       </c>
       <c r="S29" t="n">
-        <v>102.7160105145868</v>
+        <v>102.7160105145867</v>
       </c>
       <c r="T29" t="n">
-        <v>102.7160105145868</v>
+        <v>102.7160105145867</v>
       </c>
       <c r="U29" t="n">
-        <v>102.7160105145868</v>
+        <v>102.7160105145867</v>
       </c>
       <c r="V29" t="n">
-        <v>102.7160105145868</v>
+        <v>102.7160105145867</v>
       </c>
       <c r="W29" t="n">
-        <v>102.7160105145868</v>
+        <v>102.7160105145867</v>
       </c>
       <c r="X29" t="n">
-        <v>102.7160105145868</v>
+        <v>102.7160105145867</v>
       </c>
       <c r="Y29" t="n">
-        <v>102.7160105145868</v>
+        <v>102.7160105145867</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>102.7160105145868</v>
+        <v>102.7160105145867</v>
       </c>
       <c r="C31" t="n">
-        <v>102.7160105145868</v>
+        <v>102.7160105145867</v>
       </c>
       <c r="D31" t="n">
-        <v>102.7160105145868</v>
+        <v>102.7160105145867</v>
       </c>
       <c r="E31" t="n">
-        <v>102.7160105145868</v>
+        <v>102.7160105145867</v>
       </c>
       <c r="F31" t="n">
-        <v>102.7160105145868</v>
+        <v>102.7160105145867</v>
       </c>
       <c r="G31" t="n">
-        <v>102.7160105145868</v>
+        <v>102.7160105145867</v>
       </c>
       <c r="H31" t="n">
-        <v>102.7160105145868</v>
+        <v>102.7160105145867</v>
       </c>
       <c r="I31" t="n">
-        <v>102.7160105145868</v>
+        <v>102.7160105145867</v>
       </c>
       <c r="J31" t="n">
-        <v>102.7160105145868</v>
+        <v>102.7160105145867</v>
       </c>
       <c r="K31" t="n">
-        <v>102.7160105145868</v>
+        <v>102.7160105145867</v>
       </c>
       <c r="L31" t="n">
-        <v>102.7160105145868</v>
+        <v>102.7160105145867</v>
       </c>
       <c r="M31" t="n">
-        <v>102.7160105145868</v>
+        <v>102.7160105145867</v>
       </c>
       <c r="N31" t="n">
-        <v>102.7160105145868</v>
+        <v>102.7160105145867</v>
       </c>
       <c r="O31" t="n">
-        <v>102.7160105145868</v>
+        <v>102.7160105145867</v>
       </c>
       <c r="P31" t="n">
-        <v>102.7160105145868</v>
+        <v>102.7160105145867</v>
       </c>
       <c r="Q31" t="n">
-        <v>102.7160105145868</v>
+        <v>102.7160105145867</v>
       </c>
       <c r="R31" t="n">
-        <v>102.7160105145868</v>
+        <v>102.7160105145867</v>
       </c>
       <c r="S31" t="n">
-        <v>102.7160105145868</v>
+        <v>102.7160105145867</v>
       </c>
       <c r="T31" t="n">
-        <v>102.7160105145868</v>
+        <v>102.7160105145867</v>
       </c>
       <c r="U31" t="n">
-        <v>102.7160105145868</v>
+        <v>102.7160105145867</v>
       </c>
       <c r="V31" t="n">
-        <v>102.7160105145868</v>
+        <v>102.7160105145867</v>
       </c>
       <c r="W31" t="n">
-        <v>102.7160105145868</v>
+        <v>102.7160105145867</v>
       </c>
       <c r="X31" t="n">
-        <v>102.7160105145868</v>
+        <v>102.7160105145867</v>
       </c>
       <c r="Y31" t="n">
-        <v>102.7160105145868</v>
+        <v>102.7160105145867</v>
       </c>
     </row>
     <row r="32">
@@ -29779,7 +29779,7 @@
         <v>105.3057146093068</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>53.79006698716501</v>
       </c>
       <c r="N32" t="n">
         <v>105.3057146093068</v>
@@ -29791,7 +29791,7 @@
         <v>105.3057146093068</v>
       </c>
       <c r="Q32" t="n">
-        <v>53.79006698716404</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>105.3057146093068</v>
@@ -29928,10 +29928,10 @@
         <v>105.3057146093068</v>
       </c>
       <c r="J34" t="n">
-        <v>42.70910464272119</v>
+        <v>105.3057146093068</v>
       </c>
       <c r="K34" t="n">
-        <v>105.3057146093068</v>
+        <v>42.31151260808171</v>
       </c>
       <c r="L34" t="n">
         <v>105.3057146093068</v>
@@ -29949,7 +29949,7 @@
         <v>105.3057146093068</v>
       </c>
       <c r="Q34" t="n">
-        <v>104.9081225746661</v>
+        <v>105.3057146093068</v>
       </c>
       <c r="R34" t="n">
         <v>105.3057146093068</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>153.472320966738</v>
+        <v>153.4723209667381</v>
       </c>
       <c r="C35" t="n">
-        <v>153.472320966738</v>
+        <v>153.4723209667381</v>
       </c>
       <c r="D35" t="n">
-        <v>153.472320966738</v>
+        <v>153.4723209667381</v>
       </c>
       <c r="E35" t="n">
-        <v>153.472320966738</v>
+        <v>153.4723209667381</v>
       </c>
       <c r="F35" t="n">
-        <v>153.472320966738</v>
+        <v>153.4723209667381</v>
       </c>
       <c r="G35" t="n">
-        <v>153.472320966738</v>
+        <v>153.4723209667381</v>
       </c>
       <c r="H35" t="n">
-        <v>153.472320966738</v>
+        <v>153.4723209667381</v>
       </c>
       <c r="I35" t="n">
         <v>150.7299174423773</v>
@@ -30034,25 +30034,25 @@
         <v>56.55940111935789</v>
       </c>
       <c r="S35" t="n">
-        <v>153.472320966738</v>
+        <v>153.4723209667381</v>
       </c>
       <c r="T35" t="n">
-        <v>153.472320966738</v>
+        <v>153.4723209667381</v>
       </c>
       <c r="U35" t="n">
-        <v>153.472320966738</v>
+        <v>153.4723209667381</v>
       </c>
       <c r="V35" t="n">
-        <v>153.472320966738</v>
+        <v>153.4723209667381</v>
       </c>
       <c r="W35" t="n">
-        <v>153.472320966738</v>
+        <v>153.4723209667381</v>
       </c>
       <c r="X35" t="n">
-        <v>153.472320966738</v>
+        <v>153.4723209667381</v>
       </c>
       <c r="Y35" t="n">
-        <v>153.472320966738</v>
+        <v>153.4723209667381</v>
       </c>
     </row>
     <row r="36">
@@ -30141,10 +30141,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.472320966738</v>
+        <v>153.4723209667381</v>
       </c>
       <c r="C37" t="n">
-        <v>153.472320966738</v>
+        <v>153.4723209667381</v>
       </c>
       <c r="D37" t="n">
         <v>151.5411742405149</v>
@@ -30156,16 +30156,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>153.472320966738</v>
+        <v>153.4723209667381</v>
       </c>
       <c r="H37" t="n">
-        <v>153.472320966738</v>
+        <v>153.4723209667381</v>
       </c>
       <c r="I37" t="n">
         <v>135.6373244032164</v>
       </c>
       <c r="J37" t="n">
-        <v>42.70910464272119</v>
+        <v>17.53565720482216</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30192,25 +30192,25 @@
         <v>137.375484818757</v>
       </c>
       <c r="S37" t="n">
-        <v>153.472320966738</v>
+        <v>153.4723209667381</v>
       </c>
       <c r="T37" t="n">
-        <v>153.472320966738</v>
+        <v>153.4723209667381</v>
       </c>
       <c r="U37" t="n">
-        <v>153.472320966738</v>
+        <v>153.4723209667381</v>
       </c>
       <c r="V37" t="n">
-        <v>128.2988735288392</v>
+        <v>153.4723209667381</v>
       </c>
       <c r="W37" t="n">
-        <v>153.472320966738</v>
+        <v>153.4723209667381</v>
       </c>
       <c r="X37" t="n">
-        <v>153.472320966738</v>
+        <v>153.4723209667381</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.472320966738</v>
+        <v>153.4723209667381</v>
       </c>
     </row>
     <row r="38">
@@ -30402,7 +30402,7 @@
         <v>135.6373244032164</v>
       </c>
       <c r="J40" t="n">
-        <v>42.70910464272119</v>
+        <v>17.53565720482272</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30429,7 +30429,7 @@
         <v>137.375484818757</v>
       </c>
       <c r="S40" t="n">
-        <v>128.2988735288393</v>
+        <v>153.472320966738</v>
       </c>
       <c r="T40" t="n">
         <v>153.472320966738</v>
@@ -30900,7 +30900,7 @@
         <v>18.31632571813657</v>
       </c>
       <c r="R46" t="n">
-        <v>137.375484818757</v>
+        <v>112.2020373808585</v>
       </c>
       <c r="S46" t="n">
         <v>153.472320966738</v>
@@ -30909,7 +30909,7 @@
         <v>153.472320966738</v>
       </c>
       <c r="U46" t="n">
-        <v>128.2988735288397</v>
+        <v>153.472320966738</v>
       </c>
       <c r="V46" t="n">
         <v>153.472320966738</v>
@@ -35173,25 +35173,25 @@
         <v>10.00967878293136</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>9.605247316954333</v>
       </c>
       <c r="O8" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.605247316954333</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,19 +35249,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>10.00967878293136</v>
+      </c>
+      <c r="N9" t="n">
         <v>9.605247316954339</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>10.00967878293136</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>10.00967878293136</v>
@@ -35334,16 +35334,16 @@
         <v>10.00967878293136</v>
       </c>
       <c r="L10" t="n">
-        <v>9.605247316954339</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="M10" t="n">
         <v>10.00967878293136</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>9.605247316954333</v>
       </c>
       <c r="O10" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>117.5466040108514</v>
       </c>
       <c r="K11" t="n">
-        <v>309.7407955451343</v>
+        <v>284.5876643726269</v>
       </c>
       <c r="L11" t="n">
         <v>434.7356004720104</v>
       </c>
       <c r="M11" t="n">
-        <v>312.3720963412653</v>
+        <v>489.9388962296904</v>
       </c>
       <c r="N11" t="n">
         <v>476.3809345393277</v>
@@ -35428,7 +35428,7 @@
         <v>306.4012139253468</v>
       </c>
       <c r="Q11" t="n">
-        <v>152.4136687159176</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>87.55773672414018</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35504,10 +35504,10 @@
         <v>463.3878617892247</v>
       </c>
       <c r="P12" t="n">
-        <v>177.966214189792</v>
+        <v>359.1024219934866</v>
       </c>
       <c r="Q12" t="n">
-        <v>195.4327904848188</v>
+        <v>101.8543194052645</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>53.75431002464914</v>
+        <v>53.75431002464919</v>
       </c>
       <c r="K13" t="n">
         <v>157.9284269380393</v>
@@ -35577,16 +35577,16 @@
         <v>252.7811138459462</v>
       </c>
       <c r="N13" t="n">
-        <v>252.3313571035442</v>
+        <v>252.3313571035443</v>
       </c>
       <c r="O13" t="n">
-        <v>229.4038457258199</v>
+        <v>229.40384572582</v>
       </c>
       <c r="P13" t="n">
-        <v>188.7177519610706</v>
+        <v>188.7177519610707</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.14708894923376</v>
+        <v>78.1470889492338</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,10 +35647,10 @@
         <v>117.5466040108514</v>
       </c>
       <c r="K14" t="n">
-        <v>309.7407955451343</v>
+        <v>132.1739956567093</v>
       </c>
       <c r="L14" t="n">
-        <v>257.1688005835854</v>
+        <v>434.7356004720104</v>
       </c>
       <c r="M14" t="n">
         <v>489.9388962296904</v>
@@ -35735,7 +35735,7 @@
         <v>561.5248989028809</v>
       </c>
       <c r="N15" t="n">
-        <v>218.9039444007977</v>
+        <v>414.3367348856166</v>
       </c>
       <c r="O15" t="n">
         <v>463.3878617892247</v>
@@ -35744,7 +35744,7 @@
         <v>359.1024219934866</v>
       </c>
       <c r="Q15" t="n">
-        <v>195.4327904848188</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>53.75431002464924</v>
+        <v>53.75431002464926</v>
       </c>
       <c r="K16" t="n">
         <v>157.9284269380394</v>
@@ -35823,7 +35823,7 @@
         <v>188.7177519610707</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.14708894923386</v>
+        <v>78.14708894923388</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,13 +35881,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>117.5466040108514</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>309.7407955451343</v>
       </c>
       <c r="L17" t="n">
-        <v>257.1688005835849</v>
+        <v>434.7356004720104</v>
       </c>
       <c r="M17" t="n">
         <v>489.9388962296904</v>
@@ -35902,7 +35902,7 @@
         <v>306.4012139253468</v>
       </c>
       <c r="Q17" t="n">
-        <v>152.4136687159176</v>
+        <v>92.39347283834391</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35972,7 +35972,7 @@
         <v>561.5248989028809</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3462076766574</v>
+        <v>326.7789981614764</v>
       </c>
       <c r="O18" t="n">
         <v>463.3878617892247</v>
@@ -35981,7 +35981,7 @@
         <v>359.1024219934866</v>
       </c>
       <c r="Q18" t="n">
-        <v>195.4327904848188</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>434.7356004720104</v>
       </c>
       <c r="M20" t="n">
-        <v>312.3720963412649</v>
+        <v>489.9388962296904</v>
       </c>
       <c r="N20" t="n">
         <v>476.3809345393277</v>
@@ -36136,7 +36136,7 @@
         <v>397.0623116280346</v>
       </c>
       <c r="P20" t="n">
-        <v>306.4012139253468</v>
+        <v>128.8344140369218</v>
       </c>
       <c r="Q20" t="n">
         <v>152.4136687159176</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>87.55773672414018</v>
       </c>
       <c r="K21" t="n">
         <v>277.4345816848489</v>
@@ -36209,7 +36209,7 @@
         <v>561.5248989028809</v>
       </c>
       <c r="N21" t="n">
-        <v>414.3367348856166</v>
+        <v>326.7789981614768</v>
       </c>
       <c r="O21" t="n">
         <v>463.3878617892247</v>
@@ -36437,7 +36437,7 @@
         <v>87.55773672414018</v>
       </c>
       <c r="K24" t="n">
-        <v>277.4345816848489</v>
+        <v>14.29658268112377</v>
       </c>
       <c r="L24" t="n">
         <v>430.8667259218299</v>
@@ -36449,13 +36449,13 @@
         <v>589.9169971652016</v>
       </c>
       <c r="O24" t="n">
-        <v>363.9194942941676</v>
+        <v>463.3878617892247</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>359.1024219934866</v>
       </c>
       <c r="Q24" t="n">
-        <v>195.4327904848188</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>126.382872812217</v>
+        <v>220.2626145254382</v>
       </c>
       <c r="K26" t="n">
         <v>412.4568060597212</v>
@@ -36604,10 +36604,10 @@
         <v>592.6549067442772</v>
       </c>
       <c r="N26" t="n">
-        <v>579.0969450539146</v>
+        <v>579.0969450539145</v>
       </c>
       <c r="O26" t="n">
-        <v>499.7783221426214</v>
+        <v>405.8985804294011</v>
       </c>
       <c r="P26" t="n">
         <v>409.1172244399336</v>
@@ -36616,7 +36616,7 @@
         <v>255.1296792305044</v>
       </c>
       <c r="R26" t="n">
-        <v>46.1566093952289</v>
+        <v>46.15660939522888</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>87.5577367241402</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>277.434581684849</v>
@@ -36683,7 +36683,7 @@
         <v>561.524898902881</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3462076766572</v>
+        <v>414.3367348856161</v>
       </c>
       <c r="O27" t="n">
         <v>463.3878617892248</v>
@@ -36692,7 +36692,7 @@
         <v>359.1024219934866</v>
       </c>
       <c r="Q27" t="n">
-        <v>195.4327904848188</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,16 +36750,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>60.0069058718656</v>
+        <v>60.00690587186558</v>
       </c>
       <c r="K28" t="n">
-        <v>164.1810227852558</v>
+        <v>164.1810227852557</v>
       </c>
       <c r="L28" t="n">
         <v>239.5572247640607</v>
       </c>
       <c r="M28" t="n">
-        <v>259.0337096931627</v>
+        <v>259.0337096931626</v>
       </c>
       <c r="N28" t="n">
         <v>258.5839529507607</v>
@@ -36771,7 +36771,7 @@
         <v>194.9703478082871</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.39968479645022</v>
+        <v>84.3996847964502</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36841,19 +36841,19 @@
         <v>592.6549067442771</v>
       </c>
       <c r="N29" t="n">
-        <v>579.0969450539144</v>
+        <v>485.2172033406943</v>
       </c>
       <c r="O29" t="n">
         <v>499.7783221426214</v>
       </c>
       <c r="P29" t="n">
-        <v>315.2374827267132</v>
+        <v>409.1172244399335</v>
       </c>
       <c r="Q29" t="n">
         <v>255.1296792305043</v>
       </c>
       <c r="R29" t="n">
-        <v>46.15660939522886</v>
+        <v>46.15660939522885</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>87.55773672414018</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>277.4345816848489</v>
@@ -36917,10 +36917,10 @@
         <v>430.8667259218299</v>
       </c>
       <c r="M30" t="n">
-        <v>102.9541094143367</v>
+        <v>561.5248989028809</v>
       </c>
       <c r="N30" t="n">
-        <v>589.9169971652016</v>
+        <v>218.9039444007977</v>
       </c>
       <c r="O30" t="n">
         <v>463.3878617892247</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>60.00690587186557</v>
+        <v>60.00690587186556</v>
       </c>
       <c r="K31" t="n">
         <v>164.1810227852557</v>
@@ -37005,10 +37005,10 @@
         <v>235.6564415730363</v>
       </c>
       <c r="P31" t="n">
-        <v>194.9703478082871</v>
+        <v>194.970347808287</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.39968479645019</v>
+        <v>84.39968479645017</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>222.8523186201581</v>
       </c>
       <c r="K32" t="n">
-        <v>415.0465101544412</v>
+        <v>415.0465101544411</v>
       </c>
       <c r="L32" t="n">
         <v>540.0413150813172</v>
       </c>
       <c r="M32" t="n">
-        <v>489.9388962296904</v>
+        <v>543.7289632168554</v>
       </c>
       <c r="N32" t="n">
         <v>581.6866491486345</v>
@@ -37087,10 +37087,10 @@
         <v>411.7069285346536</v>
       </c>
       <c r="Q32" t="n">
-        <v>206.2037357030816</v>
+        <v>152.4136687159176</v>
       </c>
       <c r="R32" t="n">
-        <v>48.74631348994891</v>
+        <v>48.74631348994887</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>87.55773672414018</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>277.4345816848489</v>
       </c>
       <c r="L33" t="n">
-        <v>430.8667259218299</v>
+        <v>59.85367315742576</v>
       </c>
       <c r="M33" t="n">
         <v>561.5248989028809</v>
@@ -37160,7 +37160,7 @@
         <v>589.9169971652016</v>
       </c>
       <c r="O33" t="n">
-        <v>4.817072300680464</v>
+        <v>463.3878617892247</v>
       </c>
       <c r="P33" t="n">
         <v>359.1024219934866</v>
@@ -37224,19 +37224,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>62.59660996658558</v>
       </c>
       <c r="K34" t="n">
-        <v>166.7707268799758</v>
+        <v>103.7765248787507</v>
       </c>
       <c r="L34" t="n">
-        <v>242.1469288587807</v>
+        <v>242.1469288587806</v>
       </c>
       <c r="M34" t="n">
         <v>261.6234137878826</v>
       </c>
       <c r="N34" t="n">
-        <v>261.1736570454807</v>
+        <v>261.1736570454806</v>
       </c>
       <c r="O34" t="n">
         <v>238.2461456677564</v>
@@ -37245,7 +37245,7 @@
         <v>197.5600519030071</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.5917968565295</v>
+        <v>86.98938889117019</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37324,7 +37324,7 @@
         <v>306.4012139253468</v>
       </c>
       <c r="Q35" t="n">
-        <v>152.4136687159171</v>
+        <v>152.4136687159176</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>87.55773672414018</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>277.4345816848489</v>
+        <v>101.854319405264</v>
       </c>
       <c r="L36" t="n">
         <v>430.8667259218299</v>
@@ -37397,13 +37397,13 @@
         <v>589.9169971652016</v>
       </c>
       <c r="O36" t="n">
-        <v>363.9194942941676</v>
+        <v>463.3878617892247</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>359.1024219934866</v>
       </c>
       <c r="Q36" t="n">
-        <v>195.4327904848188</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37631,10 +37631,10 @@
         <v>561.5248989028809</v>
       </c>
       <c r="N39" t="n">
-        <v>589.9169971652016</v>
+        <v>131.3462076766577</v>
       </c>
       <c r="O39" t="n">
-        <v>4.817072300680923</v>
+        <v>463.3878617892247</v>
       </c>
       <c r="P39" t="n">
         <v>359.1024219934866</v>
@@ -37868,16 +37868,16 @@
         <v>561.5248989028809</v>
       </c>
       <c r="N42" t="n">
-        <v>589.9169971652016</v>
+        <v>131.3462076766577</v>
       </c>
       <c r="O42" t="n">
         <v>463.3878617892247</v>
       </c>
       <c r="P42" t="n">
-        <v>95.96442298976179</v>
+        <v>359.1024219934866</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>195.4327904848188</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>87.55773672414018</v>
       </c>
       <c r="K45" t="n">
-        <v>277.4345816848489</v>
+        <v>14.29658268112377</v>
       </c>
       <c r="L45" t="n">
         <v>430.8667259218299</v>
@@ -38105,7 +38105,7 @@
         <v>561.5248989028809</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3462076766577</v>
+        <v>589.9169971652016</v>
       </c>
       <c r="O45" t="n">
         <v>463.3878617892247</v>
@@ -38114,7 +38114,7 @@
         <v>359.1024219934866</v>
       </c>
       <c r="Q45" t="n">
-        <v>195.4327904848188</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
